--- a/CalendarioCompatto.xlsx
+++ b/CalendarioCompatto.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\personali\calendariocompatto\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5597FE67-9BA7-4833-ABCE-45D7A9DAE3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5251C50F-1DBD-414E-AF72-125E0A6E1C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="984" yWindow="1140" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="4" r:id="rId1"/>
@@ -28,10 +23,21 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'12-Month (no holidays)'!$2:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'18-Month'!$2:$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1237,7 +1243,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,7 +1269,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="34">
-        <v>45292</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="30" customFormat="1" ht="60" x14ac:dyDescent="0.5">
@@ -1394,9 +1400,9 @@
   </sheetPr>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1417,7 +1423,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="55">
         <f>Instructions!B4</f>
-        <v>45292</v>
+        <v>45658</v>
       </c>
       <c r="F1" s="55"/>
       <c r="G1" s="55"/>
@@ -1431,7 +1437,7 @@
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="str">
         <f>CONCATENATE(" Calendario compatto ",YEAR(E1))</f>
-        <v xml:space="preserve"> Calendario compatto 2024</v>
+        <v xml:space="preserve"> Calendario compatto 2025</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1513,31 +1519,31 @@
       <c r="D6" s="2"/>
       <c r="E6" s="13">
         <f t="shared" ref="E6:J6" si="0">F6-1</f>
-        <v>45285</v>
+        <v>45649</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="0"/>
-        <v>45286</v>
+        <v>45650</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="0"/>
-        <v>45287</v>
+        <v>45651</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="0"/>
-        <v>45288</v>
+        <v>45652</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="0"/>
-        <v>45289</v>
+        <v>45653</v>
       </c>
       <c r="J6" s="18">
         <f t="shared" si="0"/>
-        <v>45290</v>
+        <v>45654</v>
       </c>
       <c r="K6" s="18">
         <f>$E$1-WEEKDAY($E$1)+1</f>
-        <v>45291</v>
+        <v>45655</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1547,35 +1553,35 @@
       </c>
       <c r="C7" s="7">
         <f t="array" ref="C7">IF(SUM(1*(DAY(E7:K7)=1))&gt;0,K7,"")</f>
-        <v>45298</v>
+        <v>45662</v>
       </c>
       <c r="E7" s="13">
         <f t="shared" ref="E7:E39" si="1">K6+1</f>
-        <v>45292</v>
+        <v>45656</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" ref="F7:K7" si="2">E7+1</f>
-        <v>45293</v>
+        <v>45657</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="2"/>
-        <v>45294</v>
+        <v>45658</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" si="2"/>
-        <v>45295</v>
+        <v>45659</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="2"/>
-        <v>45296</v>
+        <v>45660</v>
       </c>
       <c r="J7" s="18">
         <f t="shared" si="2"/>
-        <v>45297</v>
+        <v>45661</v>
       </c>
       <c r="K7" s="18">
         <f t="shared" si="2"/>
-        <v>45298</v>
+        <v>45662</v>
       </c>
       <c r="M7"/>
     </row>
@@ -1590,31 +1596,31 @@
       </c>
       <c r="E8" s="13">
         <f t="shared" si="1"/>
-        <v>45299</v>
+        <v>45663</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" ref="F8:F39" si="4">E8+1</f>
-        <v>45300</v>
+        <v>45664</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" ref="G8:K58" si="5">F8+1</f>
-        <v>45301</v>
+        <v>45665</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="5"/>
-        <v>45302</v>
+        <v>45666</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="5"/>
-        <v>45303</v>
+        <v>45667</v>
       </c>
       <c r="J8" s="18">
         <f t="shared" si="5"/>
-        <v>45304</v>
+        <v>45668</v>
       </c>
       <c r="K8" s="18">
         <f t="shared" si="5"/>
-        <v>45305</v>
+        <v>45669</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1628,31 +1634,31 @@
       </c>
       <c r="E9" s="13">
         <f t="shared" si="1"/>
-        <v>45306</v>
+        <v>45670</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="4"/>
-        <v>45307</v>
+        <v>45671</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="5"/>
-        <v>45308</v>
+        <v>45672</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="5"/>
-        <v>45309</v>
+        <v>45673</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="5"/>
-        <v>45310</v>
+        <v>45674</v>
       </c>
       <c r="J9" s="18">
         <f t="shared" si="5"/>
-        <v>45311</v>
+        <v>45675</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" si="5"/>
-        <v>45312</v>
+        <v>45676</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1666,31 +1672,31 @@
       </c>
       <c r="E10" s="13">
         <f t="shared" si="1"/>
-        <v>45313</v>
+        <v>45677</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="4"/>
-        <v>45314</v>
+        <v>45678</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="5"/>
-        <v>45315</v>
+        <v>45679</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="5"/>
-        <v>45316</v>
+        <v>45680</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" si="5"/>
-        <v>45317</v>
+        <v>45681</v>
       </c>
       <c r="J10" s="18">
         <f t="shared" si="5"/>
-        <v>45318</v>
+        <v>45682</v>
       </c>
       <c r="K10" s="18">
         <f t="shared" si="5"/>
-        <v>45319</v>
+        <v>45683</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1700,35 +1706,35 @@
       </c>
       <c r="C11" s="7">
         <f t="array" ref="C11">IF(SUM(1*(DAY(E11:K11)=1))&gt;0,K11,"")</f>
-        <v>45326</v>
+        <v>45690</v>
       </c>
       <c r="E11" s="13">
         <f t="shared" si="1"/>
-        <v>45320</v>
+        <v>45684</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="4"/>
-        <v>45321</v>
+        <v>45685</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="5"/>
-        <v>45322</v>
+        <v>45686</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="5"/>
-        <v>45323</v>
+        <v>45687</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" si="5"/>
-        <v>45324</v>
+        <v>45688</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" si="5"/>
-        <v>45325</v>
+        <v>45689</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" si="5"/>
-        <v>45326</v>
+        <v>45690</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1742,31 +1748,31 @@
       </c>
       <c r="E12" s="13">
         <f t="shared" si="1"/>
-        <v>45327</v>
+        <v>45691</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="4"/>
-        <v>45328</v>
+        <v>45692</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="5"/>
-        <v>45329</v>
+        <v>45693</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" si="5"/>
-        <v>45330</v>
+        <v>45694</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" si="5"/>
-        <v>45331</v>
+        <v>45695</v>
       </c>
       <c r="J12" s="18">
         <f t="shared" si="5"/>
-        <v>45332</v>
+        <v>45696</v>
       </c>
       <c r="K12" s="18">
         <f t="shared" si="5"/>
-        <v>45333</v>
+        <v>45697</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1780,31 +1786,31 @@
       </c>
       <c r="E13" s="13">
         <f t="shared" si="1"/>
-        <v>45334</v>
+        <v>45698</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="4"/>
-        <v>45335</v>
+        <v>45699</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="5"/>
-        <v>45336</v>
+        <v>45700</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="5"/>
-        <v>45337</v>
+        <v>45701</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" si="5"/>
-        <v>45338</v>
+        <v>45702</v>
       </c>
       <c r="J13" s="18">
         <f t="shared" si="5"/>
-        <v>45339</v>
+        <v>45703</v>
       </c>
       <c r="K13" s="18">
         <f t="shared" si="5"/>
-        <v>45340</v>
+        <v>45704</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1818,31 +1824,31 @@
       </c>
       <c r="E14" s="13">
         <f t="shared" si="1"/>
-        <v>45341</v>
+        <v>45705</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="4"/>
-        <v>45342</v>
+        <v>45706</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="5"/>
-        <v>45343</v>
+        <v>45707</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="5"/>
-        <v>45344</v>
+        <v>45708</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" si="5"/>
-        <v>45345</v>
+        <v>45709</v>
       </c>
       <c r="J14" s="18">
         <f t="shared" si="5"/>
-        <v>45346</v>
+        <v>45710</v>
       </c>
       <c r="K14" s="18">
         <f t="shared" si="5"/>
-        <v>45347</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1852,35 +1858,35 @@
       </c>
       <c r="C15" s="7">
         <f t="array" ref="C15">IF(SUM(1*(DAY(E15:K15)=1))&gt;0,K15,"")</f>
-        <v>45354</v>
+        <v>45718</v>
       </c>
       <c r="E15" s="13">
         <f t="shared" si="1"/>
-        <v>45348</v>
+        <v>45712</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="4"/>
-        <v>45349</v>
+        <v>45713</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="5"/>
-        <v>45350</v>
+        <v>45714</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" si="5"/>
-        <v>45351</v>
+        <v>45715</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" si="5"/>
-        <v>45352</v>
+        <v>45716</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" si="5"/>
-        <v>45353</v>
+        <v>45717</v>
       </c>
       <c r="K15" s="18">
         <f t="shared" si="5"/>
-        <v>45354</v>
+        <v>45718</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1894,31 +1900,31 @@
       </c>
       <c r="E16" s="13">
         <f t="shared" si="1"/>
-        <v>45355</v>
+        <v>45719</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="4"/>
-        <v>45356</v>
+        <v>45720</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="5"/>
-        <v>45357</v>
+        <v>45721</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" si="5"/>
-        <v>45358</v>
+        <v>45722</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" si="5"/>
-        <v>45359</v>
+        <v>45723</v>
       </c>
       <c r="J16" s="18">
         <f t="shared" si="5"/>
-        <v>45360</v>
+        <v>45724</v>
       </c>
       <c r="K16" s="18">
         <f t="shared" si="5"/>
-        <v>45361</v>
+        <v>45725</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1932,31 +1938,31 @@
       </c>
       <c r="E17" s="13">
         <f t="shared" si="1"/>
-        <v>45362</v>
+        <v>45726</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="4"/>
-        <v>45363</v>
+        <v>45727</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="5"/>
-        <v>45364</v>
+        <v>45728</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" si="5"/>
-        <v>45365</v>
+        <v>45729</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" si="5"/>
-        <v>45366</v>
+        <v>45730</v>
       </c>
       <c r="J17" s="18">
         <f t="shared" si="5"/>
-        <v>45367</v>
+        <v>45731</v>
       </c>
       <c r="K17" s="18">
         <f t="shared" si="5"/>
-        <v>45368</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1970,31 +1976,31 @@
       </c>
       <c r="E18" s="13">
         <f t="shared" si="1"/>
-        <v>45369</v>
+        <v>45733</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="4"/>
-        <v>45370</v>
+        <v>45734</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="5"/>
-        <v>45371</v>
+        <v>45735</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" si="5"/>
-        <v>45372</v>
+        <v>45736</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" si="5"/>
-        <v>45373</v>
+        <v>45737</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" si="5"/>
-        <v>45374</v>
+        <v>45738</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" si="5"/>
-        <v>45375</v>
+        <v>45739</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2008,31 +2014,31 @@
       </c>
       <c r="E19" s="13">
         <f t="shared" si="1"/>
-        <v>45376</v>
+        <v>45740</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="4"/>
-        <v>45377</v>
+        <v>45741</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" si="5"/>
-        <v>45378</v>
+        <v>45742</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" si="5"/>
-        <v>45379</v>
+        <v>45743</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" si="5"/>
-        <v>45380</v>
+        <v>45744</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" si="5"/>
-        <v>45381</v>
+        <v>45745</v>
       </c>
       <c r="K19" s="18">
         <f t="shared" si="5"/>
-        <v>45382</v>
+        <v>45746</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2042,35 +2048,35 @@
       </c>
       <c r="C20" s="7">
         <f t="array" ref="C20">IF(SUM(1*(DAY(E20:K20)=1))&gt;0,K20,"")</f>
-        <v>45389</v>
+        <v>45753</v>
       </c>
       <c r="E20" s="13">
         <f t="shared" si="1"/>
-        <v>45383</v>
+        <v>45747</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="4"/>
-        <v>45384</v>
+        <v>45748</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="5"/>
-        <v>45385</v>
+        <v>45749</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" si="5"/>
-        <v>45386</v>
+        <v>45750</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" si="5"/>
-        <v>45387</v>
+        <v>45751</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" si="5"/>
-        <v>45388</v>
+        <v>45752</v>
       </c>
       <c r="K20" s="18">
         <f t="shared" si="5"/>
-        <v>45389</v>
+        <v>45753</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2085,31 +2091,31 @@
       <c r="D21" s="2"/>
       <c r="E21" s="13">
         <f t="shared" si="1"/>
-        <v>45390</v>
+        <v>45754</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="4"/>
-        <v>45391</v>
+        <v>45755</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="5"/>
-        <v>45392</v>
+        <v>45756</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" si="5"/>
-        <v>45393</v>
+        <v>45757</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" si="5"/>
-        <v>45394</v>
+        <v>45758</v>
       </c>
       <c r="J21" s="18">
         <f t="shared" si="5"/>
-        <v>45395</v>
+        <v>45759</v>
       </c>
       <c r="K21" s="18">
         <f t="shared" si="5"/>
-        <v>45396</v>
+        <v>45760</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2124,31 +2130,31 @@
       <c r="D22" s="2"/>
       <c r="E22" s="13">
         <f t="shared" si="1"/>
-        <v>45397</v>
+        <v>45761</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="4"/>
-        <v>45398</v>
+        <v>45762</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="5"/>
-        <v>45399</v>
+        <v>45763</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" si="5"/>
-        <v>45400</v>
+        <v>45764</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" si="5"/>
-        <v>45401</v>
+        <v>45765</v>
       </c>
       <c r="J22" s="18">
         <f t="shared" si="5"/>
-        <v>45402</v>
+        <v>45766</v>
       </c>
       <c r="K22" s="18">
         <f t="shared" si="5"/>
-        <v>45403</v>
+        <v>45767</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2163,31 +2169,31 @@
       <c r="D23" s="2"/>
       <c r="E23" s="13">
         <f t="shared" si="1"/>
-        <v>45404</v>
+        <v>45768</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="4"/>
-        <v>45405</v>
+        <v>45769</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="5"/>
-        <v>45406</v>
+        <v>45770</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" si="5"/>
-        <v>45407</v>
+        <v>45771</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" si="5"/>
-        <v>45408</v>
+        <v>45772</v>
       </c>
       <c r="J23" s="18">
         <f t="shared" si="5"/>
-        <v>45409</v>
+        <v>45773</v>
       </c>
       <c r="K23" s="18">
         <f t="shared" si="5"/>
-        <v>45410</v>
+        <v>45774</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2197,36 +2203,36 @@
       </c>
       <c r="C24" s="7">
         <f t="array" ref="C24">IF(SUM(1*(DAY(E24:K24)=1))&gt;0,K24,"")</f>
-        <v>45417</v>
+        <v>45781</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="13">
         <f t="shared" si="1"/>
-        <v>45411</v>
+        <v>45775</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="4"/>
-        <v>45412</v>
+        <v>45776</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="5"/>
-        <v>45413</v>
+        <v>45777</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" si="5"/>
-        <v>45414</v>
+        <v>45778</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" si="5"/>
-        <v>45415</v>
+        <v>45779</v>
       </c>
       <c r="J24" s="18">
         <f t="shared" si="5"/>
-        <v>45416</v>
+        <v>45780</v>
       </c>
       <c r="K24" s="18">
         <f t="shared" si="5"/>
-        <v>45417</v>
+        <v>45781</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2241,31 +2247,31 @@
       <c r="D25" s="2"/>
       <c r="E25" s="13">
         <f t="shared" si="1"/>
-        <v>45418</v>
+        <v>45782</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="4"/>
-        <v>45419</v>
+        <v>45783</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="5"/>
-        <v>45420</v>
+        <v>45784</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="5"/>
-        <v>45421</v>
+        <v>45785</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="5"/>
-        <v>45422</v>
+        <v>45786</v>
       </c>
       <c r="J25" s="18">
         <f t="shared" si="5"/>
-        <v>45423</v>
+        <v>45787</v>
       </c>
       <c r="K25" s="18">
         <f t="shared" si="5"/>
-        <v>45424</v>
+        <v>45788</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2280,31 +2286,31 @@
       <c r="D26" s="2"/>
       <c r="E26" s="13">
         <f t="shared" si="1"/>
-        <v>45425</v>
+        <v>45789</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="4"/>
-        <v>45426</v>
+        <v>45790</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="5"/>
-        <v>45427</v>
+        <v>45791</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" si="5"/>
-        <v>45428</v>
+        <v>45792</v>
       </c>
       <c r="I26" s="6">
         <f t="shared" si="5"/>
-        <v>45429</v>
+        <v>45793</v>
       </c>
       <c r="J26" s="18">
         <f t="shared" si="5"/>
-        <v>45430</v>
+        <v>45794</v>
       </c>
       <c r="K26" s="18">
         <f t="shared" si="5"/>
-        <v>45431</v>
+        <v>45795</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2319,31 +2325,31 @@
       <c r="D27" s="2"/>
       <c r="E27" s="13">
         <f t="shared" si="1"/>
-        <v>45432</v>
+        <v>45796</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="4"/>
-        <v>45433</v>
+        <v>45797</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="5"/>
-        <v>45434</v>
+        <v>45798</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" si="5"/>
-        <v>45435</v>
+        <v>45799</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" si="5"/>
-        <v>45436</v>
+        <v>45800</v>
       </c>
       <c r="J27" s="18">
         <f t="shared" si="5"/>
-        <v>45437</v>
+        <v>45801</v>
       </c>
       <c r="K27" s="18">
         <f t="shared" si="5"/>
-        <v>45438</v>
+        <v>45802</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2353,36 +2359,36 @@
       </c>
       <c r="C28" s="7">
         <f t="array" ref="C28">IF(SUM(1*(DAY(E28:K28)=1))&gt;0,K28,"")</f>
-        <v>45445</v>
+        <v>45809</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="13">
         <f t="shared" si="1"/>
-        <v>45439</v>
+        <v>45803</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="4"/>
-        <v>45440</v>
+        <v>45804</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="5"/>
-        <v>45441</v>
+        <v>45805</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" si="5"/>
-        <v>45442</v>
+        <v>45806</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" si="5"/>
-        <v>45443</v>
+        <v>45807</v>
       </c>
       <c r="J28" s="18">
         <f t="shared" si="5"/>
-        <v>45444</v>
+        <v>45808</v>
       </c>
       <c r="K28" s="18">
         <f t="shared" si="5"/>
-        <v>45445</v>
+        <v>45809</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2397,31 +2403,31 @@
       <c r="D29" s="2"/>
       <c r="E29" s="13">
         <f t="shared" si="1"/>
-        <v>45446</v>
+        <v>45810</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="4"/>
-        <v>45447</v>
+        <v>45811</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="5"/>
-        <v>45448</v>
+        <v>45812</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" si="5"/>
-        <v>45449</v>
+        <v>45813</v>
       </c>
       <c r="I29" s="6">
         <f t="shared" si="5"/>
-        <v>45450</v>
+        <v>45814</v>
       </c>
       <c r="J29" s="18">
         <f t="shared" si="5"/>
-        <v>45451</v>
+        <v>45815</v>
       </c>
       <c r="K29" s="18">
         <f t="shared" si="5"/>
-        <v>45452</v>
+        <v>45816</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2436,31 +2442,31 @@
       <c r="D30" s="2"/>
       <c r="E30" s="13">
         <f t="shared" si="1"/>
-        <v>45453</v>
+        <v>45817</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" si="4"/>
-        <v>45454</v>
+        <v>45818</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" si="5"/>
-        <v>45455</v>
+        <v>45819</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" si="5"/>
-        <v>45456</v>
+        <v>45820</v>
       </c>
       <c r="I30" s="6">
         <f t="shared" si="5"/>
-        <v>45457</v>
+        <v>45821</v>
       </c>
       <c r="J30" s="18">
         <f t="shared" si="5"/>
-        <v>45458</v>
+        <v>45822</v>
       </c>
       <c r="K30" s="18">
         <f t="shared" si="5"/>
-        <v>45459</v>
+        <v>45823</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2475,31 +2481,31 @@
       <c r="D31" s="2"/>
       <c r="E31" s="13">
         <f t="shared" si="1"/>
-        <v>45460</v>
+        <v>45824</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="4"/>
-        <v>45461</v>
+        <v>45825</v>
       </c>
       <c r="G31" s="6">
         <f t="shared" si="5"/>
-        <v>45462</v>
+        <v>45826</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" si="5"/>
-        <v>45463</v>
+        <v>45827</v>
       </c>
       <c r="I31" s="6">
         <f t="shared" si="5"/>
-        <v>45464</v>
+        <v>45828</v>
       </c>
       <c r="J31" s="18">
         <f t="shared" si="5"/>
-        <v>45465</v>
+        <v>45829</v>
       </c>
       <c r="K31" s="18">
         <f t="shared" si="5"/>
-        <v>45466</v>
+        <v>45830</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2514,31 +2520,31 @@
       <c r="D32" s="2"/>
       <c r="E32" s="13">
         <f t="shared" si="1"/>
-        <v>45467</v>
+        <v>45831</v>
       </c>
       <c r="F32" s="6">
         <f t="shared" si="4"/>
-        <v>45468</v>
+        <v>45832</v>
       </c>
       <c r="G32" s="6">
         <f t="shared" si="5"/>
-        <v>45469</v>
+        <v>45833</v>
       </c>
       <c r="H32" s="6">
         <f t="shared" si="5"/>
-        <v>45470</v>
+        <v>45834</v>
       </c>
       <c r="I32" s="6">
         <f t="shared" si="5"/>
-        <v>45471</v>
+        <v>45835</v>
       </c>
       <c r="J32" s="18">
         <f t="shared" si="5"/>
-        <v>45472</v>
+        <v>45836</v>
       </c>
       <c r="K32" s="18">
         <f t="shared" si="5"/>
-        <v>45473</v>
+        <v>45837</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2548,36 +2554,36 @@
       </c>
       <c r="C33" s="7">
         <f t="array" ref="C33">IF(SUM(1*(DAY(E33:K33)=1))&gt;0,K33,"")</f>
-        <v>45480</v>
+        <v>45844</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="13">
         <f t="shared" si="1"/>
-        <v>45474</v>
+        <v>45838</v>
       </c>
       <c r="F33" s="6">
         <f t="shared" si="4"/>
-        <v>45475</v>
+        <v>45839</v>
       </c>
       <c r="G33" s="6">
         <f t="shared" si="5"/>
-        <v>45476</v>
+        <v>45840</v>
       </c>
       <c r="H33" s="6">
         <f t="shared" si="5"/>
-        <v>45477</v>
+        <v>45841</v>
       </c>
       <c r="I33" s="6">
         <f t="shared" si="5"/>
-        <v>45478</v>
+        <v>45842</v>
       </c>
       <c r="J33" s="18">
         <f t="shared" si="5"/>
-        <v>45479</v>
+        <v>45843</v>
       </c>
       <c r="K33" s="18">
         <f t="shared" si="5"/>
-        <v>45480</v>
+        <v>45844</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2592,31 +2598,31 @@
       <c r="D34" s="2"/>
       <c r="E34" s="13">
         <f t="shared" si="1"/>
-        <v>45481</v>
+        <v>45845</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" si="4"/>
-        <v>45482</v>
+        <v>45846</v>
       </c>
       <c r="G34" s="6">
         <f t="shared" si="5"/>
-        <v>45483</v>
+        <v>45847</v>
       </c>
       <c r="H34" s="6">
         <f t="shared" si="5"/>
-        <v>45484</v>
+        <v>45848</v>
       </c>
       <c r="I34" s="6">
         <f t="shared" si="5"/>
-        <v>45485</v>
+        <v>45849</v>
       </c>
       <c r="J34" s="18">
         <f t="shared" si="5"/>
-        <v>45486</v>
+        <v>45850</v>
       </c>
       <c r="K34" s="18">
         <f t="shared" si="5"/>
-        <v>45487</v>
+        <v>45851</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2631,31 +2637,31 @@
       <c r="D35" s="2"/>
       <c r="E35" s="13">
         <f t="shared" si="1"/>
-        <v>45488</v>
+        <v>45852</v>
       </c>
       <c r="F35" s="6">
         <f t="shared" si="4"/>
-        <v>45489</v>
+        <v>45853</v>
       </c>
       <c r="G35" s="6">
         <f t="shared" si="5"/>
-        <v>45490</v>
+        <v>45854</v>
       </c>
       <c r="H35" s="6">
         <f t="shared" si="5"/>
-        <v>45491</v>
+        <v>45855</v>
       </c>
       <c r="I35" s="6">
         <f t="shared" si="5"/>
-        <v>45492</v>
+        <v>45856</v>
       </c>
       <c r="J35" s="18">
         <f t="shared" si="5"/>
-        <v>45493</v>
+        <v>45857</v>
       </c>
       <c r="K35" s="18">
         <f t="shared" si="5"/>
-        <v>45494</v>
+        <v>45858</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2670,31 +2676,31 @@
       <c r="D36" s="2"/>
       <c r="E36" s="13">
         <f t="shared" si="1"/>
-        <v>45495</v>
+        <v>45859</v>
       </c>
       <c r="F36" s="6">
         <f t="shared" si="4"/>
-        <v>45496</v>
+        <v>45860</v>
       </c>
       <c r="G36" s="6">
         <f t="shared" si="5"/>
-        <v>45497</v>
+        <v>45861</v>
       </c>
       <c r="H36" s="6">
         <f t="shared" si="5"/>
-        <v>45498</v>
+        <v>45862</v>
       </c>
       <c r="I36" s="6">
         <f t="shared" si="5"/>
-        <v>45499</v>
+        <v>45863</v>
       </c>
       <c r="J36" s="18">
         <f t="shared" si="5"/>
-        <v>45500</v>
+        <v>45864</v>
       </c>
       <c r="K36" s="18">
         <f t="shared" si="5"/>
-        <v>45501</v>
+        <v>45865</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2704,36 +2710,36 @@
       </c>
       <c r="C37" s="7">
         <f t="array" ref="C37">IF(SUM(1*(DAY(E37:K37)=1))&gt;0,K37,"")</f>
-        <v>45508</v>
+        <v>45872</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="13">
         <f t="shared" si="1"/>
-        <v>45502</v>
+        <v>45866</v>
       </c>
       <c r="F37" s="6">
         <f t="shared" si="4"/>
-        <v>45503</v>
+        <v>45867</v>
       </c>
       <c r="G37" s="6">
         <f t="shared" si="5"/>
-        <v>45504</v>
+        <v>45868</v>
       </c>
       <c r="H37" s="6">
         <f t="shared" si="5"/>
-        <v>45505</v>
+        <v>45869</v>
       </c>
       <c r="I37" s="6">
         <f t="shared" si="5"/>
-        <v>45506</v>
+        <v>45870</v>
       </c>
       <c r="J37" s="18">
         <f t="shared" si="5"/>
-        <v>45507</v>
+        <v>45871</v>
       </c>
       <c r="K37" s="18">
         <f t="shared" si="5"/>
-        <v>45508</v>
+        <v>45872</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2748,31 +2754,31 @@
       <c r="D38" s="2"/>
       <c r="E38" s="13">
         <f t="shared" si="1"/>
-        <v>45509</v>
+        <v>45873</v>
       </c>
       <c r="F38" s="6">
         <f t="shared" si="4"/>
-        <v>45510</v>
+        <v>45874</v>
       </c>
       <c r="G38" s="6">
         <f t="shared" si="5"/>
-        <v>45511</v>
+        <v>45875</v>
       </c>
       <c r="H38" s="6">
         <f t="shared" si="5"/>
-        <v>45512</v>
+        <v>45876</v>
       </c>
       <c r="I38" s="6">
         <f t="shared" si="5"/>
-        <v>45513</v>
+        <v>45877</v>
       </c>
       <c r="J38" s="18">
         <f t="shared" si="5"/>
-        <v>45514</v>
+        <v>45878</v>
       </c>
       <c r="K38" s="18">
         <f t="shared" si="5"/>
-        <v>45515</v>
+        <v>45879</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2787,31 +2793,31 @@
       <c r="D39" s="2"/>
       <c r="E39" s="13">
         <f t="shared" si="1"/>
-        <v>45516</v>
+        <v>45880</v>
       </c>
       <c r="F39" s="6">
         <f t="shared" si="4"/>
-        <v>45517</v>
+        <v>45881</v>
       </c>
       <c r="G39" s="6">
         <f t="shared" si="5"/>
-        <v>45518</v>
+        <v>45882</v>
       </c>
       <c r="H39" s="6">
         <f t="shared" si="5"/>
-        <v>45519</v>
+        <v>45883</v>
       </c>
       <c r="I39" s="6">
         <f t="shared" si="5"/>
-        <v>45520</v>
+        <v>45884</v>
       </c>
       <c r="J39" s="18">
         <f t="shared" si="5"/>
-        <v>45521</v>
+        <v>45885</v>
       </c>
       <c r="K39" s="18">
         <f t="shared" si="5"/>
-        <v>45522</v>
+        <v>45886</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2826,31 +2832,31 @@
       <c r="D40" s="2"/>
       <c r="E40" s="13">
         <f t="shared" ref="E40:E59" si="6">K39+1</f>
-        <v>45523</v>
+        <v>45887</v>
       </c>
       <c r="F40" s="6">
         <f t="shared" ref="F40:F59" si="7">E40+1</f>
-        <v>45524</v>
+        <v>45888</v>
       </c>
       <c r="G40" s="6">
         <f t="shared" si="5"/>
-        <v>45525</v>
+        <v>45889</v>
       </c>
       <c r="H40" s="6">
         <f t="shared" si="5"/>
-        <v>45526</v>
+        <v>45890</v>
       </c>
       <c r="I40" s="6">
         <f t="shared" si="5"/>
-        <v>45527</v>
+        <v>45891</v>
       </c>
       <c r="J40" s="18">
         <f t="shared" si="5"/>
-        <v>45528</v>
+        <v>45892</v>
       </c>
       <c r="K40" s="18">
         <f t="shared" si="5"/>
-        <v>45529</v>
+        <v>45893</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2858,38 +2864,38 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="7" t="str">
         <f t="array" ref="C41">IF(SUM(1*(DAY(E41:K41)=1))&gt;0,K41,"")</f>
-        <v>45536</v>
+        <v/>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="13">
         <f t="shared" si="6"/>
-        <v>45530</v>
+        <v>45894</v>
       </c>
       <c r="F41" s="6">
         <f t="shared" si="7"/>
-        <v>45531</v>
+        <v>45895</v>
       </c>
       <c r="G41" s="6">
         <f t="shared" si="5"/>
-        <v>45532</v>
+        <v>45896</v>
       </c>
       <c r="H41" s="6">
         <f t="shared" si="5"/>
-        <v>45533</v>
+        <v>45897</v>
       </c>
       <c r="I41" s="6">
         <f t="shared" si="5"/>
-        <v>45534</v>
+        <v>45898</v>
       </c>
       <c r="J41" s="18">
         <f t="shared" si="5"/>
-        <v>45535</v>
+        <v>45899</v>
       </c>
       <c r="K41" s="18">
         <f t="shared" si="5"/>
-        <v>45536</v>
+        <v>45900</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2897,38 +2903,38 @@
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="C42" s="7" t="str">
+      <c r="C42" s="7">
         <f t="array" ref="C42">IF(SUM(1*(DAY(E42:K42)=1))&gt;0,K42,"")</f>
-        <v/>
+        <v>45907</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="13">
         <f t="shared" si="6"/>
-        <v>45537</v>
+        <v>45901</v>
       </c>
       <c r="F42" s="6">
         <f t="shared" si="7"/>
-        <v>45538</v>
+        <v>45902</v>
       </c>
       <c r="G42" s="6">
         <f t="shared" si="5"/>
-        <v>45539</v>
+        <v>45903</v>
       </c>
       <c r="H42" s="6">
         <f t="shared" si="5"/>
-        <v>45540</v>
+        <v>45904</v>
       </c>
       <c r="I42" s="6">
         <f t="shared" si="5"/>
-        <v>45541</v>
+        <v>45905</v>
       </c>
       <c r="J42" s="18">
         <f t="shared" si="5"/>
-        <v>45542</v>
+        <v>45906</v>
       </c>
       <c r="K42" s="18">
         <f t="shared" si="5"/>
-        <v>45543</v>
+        <v>45907</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2943,31 +2949,31 @@
       <c r="D43" s="2"/>
       <c r="E43" s="13">
         <f t="shared" si="6"/>
-        <v>45544</v>
+        <v>45908</v>
       </c>
       <c r="F43" s="6">
         <f t="shared" si="7"/>
-        <v>45545</v>
+        <v>45909</v>
       </c>
       <c r="G43" s="6">
         <f t="shared" si="5"/>
-        <v>45546</v>
+        <v>45910</v>
       </c>
       <c r="H43" s="6">
         <f t="shared" si="5"/>
-        <v>45547</v>
+        <v>45911</v>
       </c>
       <c r="I43" s="6">
         <f t="shared" si="5"/>
-        <v>45548</v>
+        <v>45912</v>
       </c>
       <c r="J43" s="18">
         <f t="shared" si="5"/>
-        <v>45549</v>
+        <v>45913</v>
       </c>
       <c r="K43" s="18">
         <f t="shared" si="5"/>
-        <v>45550</v>
+        <v>45914</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2982,31 +2988,31 @@
       <c r="D44" s="2"/>
       <c r="E44" s="13">
         <f t="shared" si="6"/>
-        <v>45551</v>
+        <v>45915</v>
       </c>
       <c r="F44" s="6">
         <f t="shared" si="7"/>
-        <v>45552</v>
+        <v>45916</v>
       </c>
       <c r="G44" s="6">
         <f t="shared" si="5"/>
-        <v>45553</v>
+        <v>45917</v>
       </c>
       <c r="H44" s="6">
         <f t="shared" si="5"/>
-        <v>45554</v>
+        <v>45918</v>
       </c>
       <c r="I44" s="6">
         <f t="shared" si="5"/>
-        <v>45555</v>
+        <v>45919</v>
       </c>
       <c r="J44" s="18">
         <f t="shared" si="5"/>
-        <v>45556</v>
+        <v>45920</v>
       </c>
       <c r="K44" s="18">
         <f t="shared" si="5"/>
-        <v>45557</v>
+        <v>45921</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3021,31 +3027,31 @@
       <c r="D45" s="2"/>
       <c r="E45" s="13">
         <f t="shared" si="6"/>
-        <v>45558</v>
+        <v>45922</v>
       </c>
       <c r="F45" s="6">
         <f t="shared" si="7"/>
-        <v>45559</v>
+        <v>45923</v>
       </c>
       <c r="G45" s="6">
         <f t="shared" si="5"/>
-        <v>45560</v>
+        <v>45924</v>
       </c>
       <c r="H45" s="6">
         <f t="shared" si="5"/>
-        <v>45561</v>
+        <v>45925</v>
       </c>
       <c r="I45" s="6">
         <f t="shared" si="5"/>
-        <v>45562</v>
+        <v>45926</v>
       </c>
       <c r="J45" s="18">
         <f t="shared" si="5"/>
-        <v>45563</v>
+        <v>45927</v>
       </c>
       <c r="K45" s="18">
         <f t="shared" si="5"/>
-        <v>45564</v>
+        <v>45928</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3055,36 +3061,36 @@
       </c>
       <c r="C46" s="7">
         <f t="array" ref="C46">IF(SUM(1*(DAY(E46:K46)=1))&gt;0,K46,"")</f>
-        <v>45571</v>
+        <v>45935</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="13">
         <f t="shared" si="6"/>
-        <v>45565</v>
+        <v>45929</v>
       </c>
       <c r="F46" s="6">
         <f t="shared" si="7"/>
-        <v>45566</v>
+        <v>45930</v>
       </c>
       <c r="G46" s="6">
         <f t="shared" si="5"/>
-        <v>45567</v>
+        <v>45931</v>
       </c>
       <c r="H46" s="6">
         <f t="shared" si="5"/>
-        <v>45568</v>
+        <v>45932</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="5"/>
-        <v>45569</v>
+        <v>45933</v>
       </c>
       <c r="J46" s="18">
         <f t="shared" si="5"/>
-        <v>45570</v>
+        <v>45934</v>
       </c>
       <c r="K46" s="18">
         <f t="shared" si="5"/>
-        <v>45571</v>
+        <v>45935</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3099,31 +3105,31 @@
       <c r="D47" s="2"/>
       <c r="E47" s="13">
         <f t="shared" si="6"/>
-        <v>45572</v>
+        <v>45936</v>
       </c>
       <c r="F47" s="6">
         <f t="shared" si="7"/>
-        <v>45573</v>
+        <v>45937</v>
       </c>
       <c r="G47" s="6">
         <f t="shared" si="5"/>
-        <v>45574</v>
+        <v>45938</v>
       </c>
       <c r="H47" s="6">
         <f t="shared" si="5"/>
-        <v>45575</v>
+        <v>45939</v>
       </c>
       <c r="I47" s="6">
         <f t="shared" si="5"/>
-        <v>45576</v>
+        <v>45940</v>
       </c>
       <c r="J47" s="18">
         <f t="shared" si="5"/>
-        <v>45577</v>
+        <v>45941</v>
       </c>
       <c r="K47" s="18">
         <f t="shared" si="5"/>
-        <v>45578</v>
+        <v>45942</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3138,31 +3144,31 @@
       <c r="D48" s="2"/>
       <c r="E48" s="13">
         <f t="shared" si="6"/>
-        <v>45579</v>
+        <v>45943</v>
       </c>
       <c r="F48" s="6">
         <f t="shared" si="7"/>
-        <v>45580</v>
+        <v>45944</v>
       </c>
       <c r="G48" s="6">
         <f t="shared" si="5"/>
-        <v>45581</v>
+        <v>45945</v>
       </c>
       <c r="H48" s="6">
         <f t="shared" si="5"/>
-        <v>45582</v>
+        <v>45946</v>
       </c>
       <c r="I48" s="6">
         <f t="shared" si="5"/>
-        <v>45583</v>
+        <v>45947</v>
       </c>
       <c r="J48" s="18">
         <f t="shared" si="5"/>
-        <v>45584</v>
+        <v>45948</v>
       </c>
       <c r="K48" s="18">
         <f t="shared" si="5"/>
-        <v>45585</v>
+        <v>45949</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3177,31 +3183,31 @@
       <c r="D49" s="2"/>
       <c r="E49" s="13">
         <f t="shared" si="6"/>
-        <v>45586</v>
+        <v>45950</v>
       </c>
       <c r="F49" s="6">
         <f t="shared" si="7"/>
-        <v>45587</v>
+        <v>45951</v>
       </c>
       <c r="G49" s="6">
         <f t="shared" si="5"/>
-        <v>45588</v>
+        <v>45952</v>
       </c>
       <c r="H49" s="6">
         <f t="shared" si="5"/>
-        <v>45589</v>
+        <v>45953</v>
       </c>
       <c r="I49" s="6">
         <f t="shared" si="5"/>
-        <v>45590</v>
+        <v>45954</v>
       </c>
       <c r="J49" s="18">
         <f t="shared" si="5"/>
-        <v>45591</v>
+        <v>45955</v>
       </c>
       <c r="K49" s="18">
         <f t="shared" si="5"/>
-        <v>45592</v>
+        <v>45956</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3211,36 +3217,36 @@
       </c>
       <c r="C50" s="7">
         <f t="array" ref="C50">IF(SUM(1*(DAY(E50:K50)=1))&gt;0,K50,"")</f>
-        <v>45599</v>
+        <v>45963</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="13">
         <f t="shared" si="6"/>
-        <v>45593</v>
+        <v>45957</v>
       </c>
       <c r="F50" s="6">
         <f t="shared" si="7"/>
-        <v>45594</v>
+        <v>45958</v>
       </c>
       <c r="G50" s="6">
         <f t="shared" si="5"/>
-        <v>45595</v>
+        <v>45959</v>
       </c>
       <c r="H50" s="6">
         <f t="shared" si="5"/>
-        <v>45596</v>
+        <v>45960</v>
       </c>
       <c r="I50" s="6">
         <f t="shared" si="5"/>
-        <v>45597</v>
+        <v>45961</v>
       </c>
       <c r="J50" s="18">
         <f t="shared" si="5"/>
-        <v>45598</v>
+        <v>45962</v>
       </c>
       <c r="K50" s="18">
         <f t="shared" si="5"/>
-        <v>45599</v>
+        <v>45963</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3255,31 +3261,31 @@
       <c r="D51" s="2"/>
       <c r="E51" s="13">
         <f t="shared" si="6"/>
-        <v>45600</v>
+        <v>45964</v>
       </c>
       <c r="F51" s="6">
         <f t="shared" si="7"/>
-        <v>45601</v>
+        <v>45965</v>
       </c>
       <c r="G51" s="6">
         <f t="shared" si="5"/>
-        <v>45602</v>
+        <v>45966</v>
       </c>
       <c r="H51" s="6">
         <f t="shared" si="5"/>
-        <v>45603</v>
+        <v>45967</v>
       </c>
       <c r="I51" s="6">
         <f t="shared" si="5"/>
-        <v>45604</v>
+        <v>45968</v>
       </c>
       <c r="J51" s="18">
         <f t="shared" si="5"/>
-        <v>45605</v>
+        <v>45969</v>
       </c>
       <c r="K51" s="18">
         <f t="shared" si="5"/>
-        <v>45606</v>
+        <v>45970</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3294,31 +3300,31 @@
       <c r="D52" s="2"/>
       <c r="E52" s="13">
         <f t="shared" si="6"/>
-        <v>45607</v>
+        <v>45971</v>
       </c>
       <c r="F52" s="6">
         <f t="shared" si="7"/>
-        <v>45608</v>
+        <v>45972</v>
       </c>
       <c r="G52" s="6">
         <f t="shared" si="5"/>
-        <v>45609</v>
+        <v>45973</v>
       </c>
       <c r="H52" s="6">
         <f t="shared" si="5"/>
-        <v>45610</v>
+        <v>45974</v>
       </c>
       <c r="I52" s="6">
         <f t="shared" si="5"/>
-        <v>45611</v>
+        <v>45975</v>
       </c>
       <c r="J52" s="18">
         <f t="shared" si="5"/>
-        <v>45612</v>
+        <v>45976</v>
       </c>
       <c r="K52" s="18">
         <f t="shared" si="5"/>
-        <v>45613</v>
+        <v>45977</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3333,31 +3339,31 @@
       <c r="D53" s="2"/>
       <c r="E53" s="13">
         <f t="shared" si="6"/>
-        <v>45614</v>
+        <v>45978</v>
       </c>
       <c r="F53" s="6">
         <f t="shared" si="7"/>
-        <v>45615</v>
+        <v>45979</v>
       </c>
       <c r="G53" s="6">
         <f t="shared" si="5"/>
-        <v>45616</v>
+        <v>45980</v>
       </c>
       <c r="H53" s="6">
         <f t="shared" si="5"/>
-        <v>45617</v>
+        <v>45981</v>
       </c>
       <c r="I53" s="6">
         <f>H53+1</f>
-        <v>45618</v>
+        <v>45982</v>
       </c>
       <c r="J53" s="18">
         <f t="shared" si="5"/>
-        <v>45619</v>
+        <v>45983</v>
       </c>
       <c r="K53" s="18">
         <f t="shared" si="5"/>
-        <v>45620</v>
+        <v>45984</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3365,38 +3371,38 @@
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="7" t="str">
         <f t="array" ref="C54">IF(SUM(1*(DAY(E54:K54)=1))&gt;0,K54,"")</f>
-        <v>45627</v>
+        <v/>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="13">
         <f t="shared" si="6"/>
-        <v>45621</v>
+        <v>45985</v>
       </c>
       <c r="F54" s="6">
         <f t="shared" si="7"/>
-        <v>45622</v>
+        <v>45986</v>
       </c>
       <c r="G54" s="6">
         <f t="shared" si="5"/>
-        <v>45623</v>
+        <v>45987</v>
       </c>
       <c r="H54" s="6">
         <f t="shared" si="5"/>
-        <v>45624</v>
+        <v>45988</v>
       </c>
       <c r="I54" s="6">
         <f t="shared" si="5"/>
-        <v>45625</v>
+        <v>45989</v>
       </c>
       <c r="J54" s="18">
         <f t="shared" si="5"/>
-        <v>45626</v>
+        <v>45990</v>
       </c>
       <c r="K54" s="18">
         <f t="shared" si="5"/>
-        <v>45627</v>
+        <v>45991</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3404,38 +3410,38 @@
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="C55" s="7" t="str">
+      <c r="C55" s="7">
         <f t="array" ref="C55">IF(SUM(1*(DAY(E55:K55)=1))&gt;0,K55,"")</f>
-        <v/>
+        <v>45998</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="13">
         <f t="shared" si="6"/>
-        <v>45628</v>
+        <v>45992</v>
       </c>
       <c r="F55" s="6">
         <f t="shared" si="7"/>
-        <v>45629</v>
+        <v>45993</v>
       </c>
       <c r="G55" s="6">
         <f t="shared" si="5"/>
-        <v>45630</v>
+        <v>45994</v>
       </c>
       <c r="H55" s="6">
         <f t="shared" si="5"/>
-        <v>45631</v>
+        <v>45995</v>
       </c>
       <c r="I55" s="6">
         <f t="shared" si="5"/>
-        <v>45632</v>
+        <v>45996</v>
       </c>
       <c r="J55" s="18">
         <f t="shared" si="5"/>
-        <v>45633</v>
+        <v>45997</v>
       </c>
       <c r="K55" s="18">
         <f t="shared" si="5"/>
-        <v>45634</v>
+        <v>45998</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3450,31 +3456,31 @@
       <c r="D56" s="2"/>
       <c r="E56" s="13">
         <f t="shared" si="6"/>
-        <v>45635</v>
+        <v>45999</v>
       </c>
       <c r="F56" s="6">
         <f t="shared" si="7"/>
-        <v>45636</v>
+        <v>46000</v>
       </c>
       <c r="G56" s="6">
         <f t="shared" si="5"/>
-        <v>45637</v>
+        <v>46001</v>
       </c>
       <c r="H56" s="6">
         <f t="shared" si="5"/>
-        <v>45638</v>
+        <v>46002</v>
       </c>
       <c r="I56" s="6">
         <f t="shared" si="5"/>
-        <v>45639</v>
+        <v>46003</v>
       </c>
       <c r="J56" s="18">
         <f t="shared" si="5"/>
-        <v>45640</v>
+        <v>46004</v>
       </c>
       <c r="K56" s="18">
         <f t="shared" si="5"/>
-        <v>45641</v>
+        <v>46005</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3489,31 +3495,31 @@
       <c r="D57" s="2"/>
       <c r="E57" s="13">
         <f t="shared" si="6"/>
-        <v>45642</v>
+        <v>46006</v>
       </c>
       <c r="F57" s="6">
         <f t="shared" si="7"/>
-        <v>45643</v>
+        <v>46007</v>
       </c>
       <c r="G57" s="6">
         <f t="shared" si="5"/>
-        <v>45644</v>
+        <v>46008</v>
       </c>
       <c r="H57" s="6">
         <f t="shared" si="5"/>
-        <v>45645</v>
+        <v>46009</v>
       </c>
       <c r="I57" s="6">
         <f t="shared" si="5"/>
-        <v>45646</v>
+        <v>46010</v>
       </c>
       <c r="J57" s="18">
         <f t="shared" si="5"/>
-        <v>45647</v>
+        <v>46011</v>
       </c>
       <c r="K57" s="18">
         <f t="shared" si="5"/>
-        <v>45648</v>
+        <v>46012</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3528,31 +3534,31 @@
       <c r="D58" s="2"/>
       <c r="E58" s="13">
         <f t="shared" si="6"/>
-        <v>45649</v>
+        <v>46013</v>
       </c>
       <c r="F58" s="6">
         <f t="shared" si="7"/>
-        <v>45650</v>
+        <v>46014</v>
       </c>
       <c r="G58" s="6">
         <f t="shared" si="5"/>
-        <v>45651</v>
+        <v>46015</v>
       </c>
       <c r="H58" s="6">
         <f t="shared" si="5"/>
-        <v>45652</v>
+        <v>46016</v>
       </c>
       <c r="I58" s="6">
         <f t="shared" si="5"/>
-        <v>45653</v>
+        <v>46017</v>
       </c>
       <c r="J58" s="18">
         <f t="shared" si="5"/>
-        <v>45654</v>
+        <v>46018</v>
       </c>
       <c r="K58" s="18">
         <f t="shared" si="5"/>
-        <v>45655</v>
+        <v>46019</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3562,36 +3568,36 @@
       </c>
       <c r="C59" s="7">
         <f t="array" ref="C59">IF(SUM(1*(DAY(E59:K59)=1))&gt;0,K59,"")</f>
-        <v>45662</v>
+        <v>46026</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="13">
         <f t="shared" si="6"/>
-        <v>45656</v>
+        <v>46020</v>
       </c>
       <c r="F59" s="6">
         <f t="shared" si="7"/>
-        <v>45657</v>
+        <v>46021</v>
       </c>
       <c r="G59" s="6">
         <f>F59+1</f>
-        <v>45658</v>
+        <v>46022</v>
       </c>
       <c r="H59" s="6">
         <f>G59+1</f>
-        <v>45659</v>
+        <v>46023</v>
       </c>
       <c r="I59" s="6">
         <f>H59+1</f>
-        <v>45660</v>
+        <v>46024</v>
       </c>
       <c r="J59" s="18">
         <f>I59+1</f>
-        <v>45661</v>
+        <v>46025</v>
       </c>
       <c r="K59" s="18">
         <f>J59+1</f>
-        <v>45662</v>
+        <v>46026</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3648,7 +3654,7 @@
   </sheetPr>
   <dimension ref="A1:M329"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -3671,7 +3677,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="55">
         <f>Instructions!B4</f>
-        <v>45292</v>
+        <v>45658</v>
       </c>
       <c r="F1" s="55"/>
       <c r="G1" s="55"/>
@@ -3685,7 +3691,7 @@
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="str">
         <f>CONCATENATE(" Calendario compatto ",YEAR(E1)," (18 mesi) ")</f>
-        <v xml:space="preserve"> Calendario compatto 2024 (18 mesi) </v>
+        <v xml:space="preserve"> Calendario compatto 2025 (18 mesi) </v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -3767,31 +3773,31 @@
       <c r="D6" s="2"/>
       <c r="E6" s="13">
         <f t="shared" ref="E6:J6" si="0">F6-1</f>
-        <v>45285</v>
+        <v>45649</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="0"/>
-        <v>45286</v>
+        <v>45650</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="0"/>
-        <v>45287</v>
+        <v>45651</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="0"/>
-        <v>45288</v>
+        <v>45652</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="0"/>
-        <v>45289</v>
+        <v>45653</v>
       </c>
       <c r="J6" s="18">
         <f t="shared" si="0"/>
-        <v>45290</v>
+        <v>45654</v>
       </c>
       <c r="K6" s="18">
         <f>$E$1-WEEKDAY($E$1)+1</f>
-        <v>45291</v>
+        <v>45655</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3801,35 +3807,35 @@
       </c>
       <c r="C7" s="7">
         <f t="array" ref="C7">IF(SUM(1*(DAY(E7:K7)=1))&gt;0,K7,"")</f>
-        <v>45298</v>
+        <v>45662</v>
       </c>
       <c r="E7" s="13">
         <f t="shared" ref="E7:E59" si="1">K6+1</f>
-        <v>45292</v>
+        <v>45656</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" ref="F7:K22" si="2">E7+1</f>
-        <v>45293</v>
+        <v>45657</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="2"/>
-        <v>45294</v>
+        <v>45658</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" si="2"/>
-        <v>45295</v>
+        <v>45659</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="2"/>
-        <v>45296</v>
+        <v>45660</v>
       </c>
       <c r="J7" s="18">
         <f t="shared" si="2"/>
-        <v>45297</v>
+        <v>45661</v>
       </c>
       <c r="K7" s="18">
         <f t="shared" si="2"/>
-        <v>45298</v>
+        <v>45662</v>
       </c>
       <c r="M7"/>
     </row>
@@ -3844,31 +3850,31 @@
       </c>
       <c r="E8" s="13">
         <f t="shared" si="1"/>
-        <v>45299</v>
+        <v>45663</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="2"/>
-        <v>45300</v>
+        <v>45664</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="2"/>
-        <v>45301</v>
+        <v>45665</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="2"/>
-        <v>45302</v>
+        <v>45666</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="2"/>
-        <v>45303</v>
+        <v>45667</v>
       </c>
       <c r="J8" s="18">
         <f t="shared" si="2"/>
-        <v>45304</v>
+        <v>45668</v>
       </c>
       <c r="K8" s="18">
         <f t="shared" si="2"/>
-        <v>45305</v>
+        <v>45669</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3882,31 +3888,31 @@
       </c>
       <c r="E9" s="13">
         <f t="shared" si="1"/>
-        <v>45306</v>
+        <v>45670</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="2"/>
-        <v>45307</v>
+        <v>45671</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="2"/>
-        <v>45308</v>
+        <v>45672</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="2"/>
-        <v>45309</v>
+        <v>45673</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="2"/>
-        <v>45310</v>
+        <v>45674</v>
       </c>
       <c r="J9" s="18">
         <f t="shared" si="2"/>
-        <v>45311</v>
+        <v>45675</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" si="2"/>
-        <v>45312</v>
+        <v>45676</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3920,31 +3926,31 @@
       </c>
       <c r="E10" s="13">
         <f t="shared" si="1"/>
-        <v>45313</v>
+        <v>45677</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="2"/>
-        <v>45314</v>
+        <v>45678</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="2"/>
-        <v>45315</v>
+        <v>45679</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="2"/>
-        <v>45316</v>
+        <v>45680</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" si="2"/>
-        <v>45317</v>
+        <v>45681</v>
       </c>
       <c r="J10" s="18">
         <f t="shared" si="2"/>
-        <v>45318</v>
+        <v>45682</v>
       </c>
       <c r="K10" s="18">
         <f t="shared" si="2"/>
-        <v>45319</v>
+        <v>45683</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3954,35 +3960,35 @@
       </c>
       <c r="C11" s="7">
         <f t="array" ref="C11">IF(SUM(1*(DAY(E11:K11)=1))&gt;0,K11,"")</f>
-        <v>45326</v>
+        <v>45690</v>
       </c>
       <c r="E11" s="13">
         <f t="shared" si="1"/>
-        <v>45320</v>
+        <v>45684</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="2"/>
-        <v>45321</v>
+        <v>45685</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="2"/>
-        <v>45322</v>
+        <v>45686</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="2"/>
-        <v>45323</v>
+        <v>45687</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" si="2"/>
-        <v>45324</v>
+        <v>45688</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" si="2"/>
-        <v>45325</v>
+        <v>45689</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" si="2"/>
-        <v>45326</v>
+        <v>45690</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3996,31 +4002,31 @@
       </c>
       <c r="E12" s="13">
         <f t="shared" si="1"/>
-        <v>45327</v>
+        <v>45691</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="2"/>
-        <v>45328</v>
+        <v>45692</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="2"/>
-        <v>45329</v>
+        <v>45693</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" si="2"/>
-        <v>45330</v>
+        <v>45694</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" si="2"/>
-        <v>45331</v>
+        <v>45695</v>
       </c>
       <c r="J12" s="18">
         <f t="shared" si="2"/>
-        <v>45332</v>
+        <v>45696</v>
       </c>
       <c r="K12" s="18">
         <f t="shared" si="2"/>
-        <v>45333</v>
+        <v>45697</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4034,31 +4040,31 @@
       </c>
       <c r="E13" s="13">
         <f t="shared" si="1"/>
-        <v>45334</v>
+        <v>45698</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="2"/>
-        <v>45335</v>
+        <v>45699</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="2"/>
-        <v>45336</v>
+        <v>45700</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="2"/>
-        <v>45337</v>
+        <v>45701</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" si="2"/>
-        <v>45338</v>
+        <v>45702</v>
       </c>
       <c r="J13" s="18">
         <f t="shared" si="2"/>
-        <v>45339</v>
+        <v>45703</v>
       </c>
       <c r="K13" s="18">
         <f t="shared" si="2"/>
-        <v>45340</v>
+        <v>45704</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4072,31 +4078,31 @@
       </c>
       <c r="E14" s="13">
         <f t="shared" si="1"/>
-        <v>45341</v>
+        <v>45705</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="2"/>
-        <v>45342</v>
+        <v>45706</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="2"/>
-        <v>45343</v>
+        <v>45707</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="2"/>
-        <v>45344</v>
+        <v>45708</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" si="2"/>
-        <v>45345</v>
+        <v>45709</v>
       </c>
       <c r="J14" s="18">
         <f t="shared" si="2"/>
-        <v>45346</v>
+        <v>45710</v>
       </c>
       <c r="K14" s="18">
         <f t="shared" si="2"/>
-        <v>45347</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4106,35 +4112,35 @@
       </c>
       <c r="C15" s="7">
         <f t="array" ref="C15">IF(SUM(1*(DAY(E15:K15)=1))&gt;0,K15,"")</f>
-        <v>45354</v>
+        <v>45718</v>
       </c>
       <c r="E15" s="13">
         <f t="shared" si="1"/>
-        <v>45348</v>
+        <v>45712</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="2"/>
-        <v>45349</v>
+        <v>45713</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="2"/>
-        <v>45350</v>
+        <v>45714</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" si="2"/>
-        <v>45351</v>
+        <v>45715</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" si="2"/>
-        <v>45352</v>
+        <v>45716</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" si="2"/>
-        <v>45353</v>
+        <v>45717</v>
       </c>
       <c r="K15" s="18">
         <f t="shared" si="2"/>
-        <v>45354</v>
+        <v>45718</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4148,31 +4154,31 @@
       </c>
       <c r="E16" s="13">
         <f t="shared" si="1"/>
-        <v>45355</v>
+        <v>45719</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="2"/>
-        <v>45356</v>
+        <v>45720</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="2"/>
-        <v>45357</v>
+        <v>45721</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" si="2"/>
-        <v>45358</v>
+        <v>45722</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" si="2"/>
-        <v>45359</v>
+        <v>45723</v>
       </c>
       <c r="J16" s="18">
         <f t="shared" si="2"/>
-        <v>45360</v>
+        <v>45724</v>
       </c>
       <c r="K16" s="18">
         <f t="shared" si="2"/>
-        <v>45361</v>
+        <v>45725</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4186,31 +4192,31 @@
       </c>
       <c r="E17" s="13">
         <f t="shared" si="1"/>
-        <v>45362</v>
+        <v>45726</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="2"/>
-        <v>45363</v>
+        <v>45727</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="2"/>
-        <v>45364</v>
+        <v>45728</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" si="2"/>
-        <v>45365</v>
+        <v>45729</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" si="2"/>
-        <v>45366</v>
+        <v>45730</v>
       </c>
       <c r="J17" s="18">
         <f t="shared" si="2"/>
-        <v>45367</v>
+        <v>45731</v>
       </c>
       <c r="K17" s="18">
         <f t="shared" si="2"/>
-        <v>45368</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4224,31 +4230,31 @@
       </c>
       <c r="E18" s="13">
         <f t="shared" si="1"/>
-        <v>45369</v>
+        <v>45733</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="2"/>
-        <v>45370</v>
+        <v>45734</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="2"/>
-        <v>45371</v>
+        <v>45735</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" si="2"/>
-        <v>45372</v>
+        <v>45736</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" si="2"/>
-        <v>45373</v>
+        <v>45737</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" si="2"/>
-        <v>45374</v>
+        <v>45738</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" si="2"/>
-        <v>45375</v>
+        <v>45739</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4262,31 +4268,31 @@
       </c>
       <c r="E19" s="13">
         <f t="shared" si="1"/>
-        <v>45376</v>
+        <v>45740</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="2"/>
-        <v>45377</v>
+        <v>45741</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" si="2"/>
-        <v>45378</v>
+        <v>45742</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" si="2"/>
-        <v>45379</v>
+        <v>45743</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" si="2"/>
-        <v>45380</v>
+        <v>45744</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" si="2"/>
-        <v>45381</v>
+        <v>45745</v>
       </c>
       <c r="K19" s="18">
         <f t="shared" si="2"/>
-        <v>45382</v>
+        <v>45746</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4296,35 +4302,35 @@
       </c>
       <c r="C20" s="7">
         <f t="array" ref="C20">IF(SUM(1*(DAY(E20:K20)=1))&gt;0,K20,"")</f>
-        <v>45389</v>
+        <v>45753</v>
       </c>
       <c r="E20" s="13">
         <f t="shared" si="1"/>
-        <v>45383</v>
+        <v>45747</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="2"/>
-        <v>45384</v>
+        <v>45748</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="2"/>
-        <v>45385</v>
+        <v>45749</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" si="2"/>
-        <v>45386</v>
+        <v>45750</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" si="2"/>
-        <v>45387</v>
+        <v>45751</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" si="2"/>
-        <v>45388</v>
+        <v>45752</v>
       </c>
       <c r="K20" s="18">
         <f t="shared" si="2"/>
-        <v>45389</v>
+        <v>45753</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4339,31 +4345,31 @@
       <c r="D21" s="2"/>
       <c r="E21" s="13">
         <f t="shared" si="1"/>
-        <v>45390</v>
+        <v>45754</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="2"/>
-        <v>45391</v>
+        <v>45755</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="2"/>
-        <v>45392</v>
+        <v>45756</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" si="2"/>
-        <v>45393</v>
+        <v>45757</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" si="2"/>
-        <v>45394</v>
+        <v>45758</v>
       </c>
       <c r="J21" s="18">
         <f t="shared" si="2"/>
-        <v>45395</v>
+        <v>45759</v>
       </c>
       <c r="K21" s="18">
         <f t="shared" si="2"/>
-        <v>45396</v>
+        <v>45760</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4378,31 +4384,31 @@
       <c r="D22" s="2"/>
       <c r="E22" s="13">
         <f t="shared" si="1"/>
-        <v>45397</v>
+        <v>45761</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="2"/>
-        <v>45398</v>
+        <v>45762</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="2"/>
-        <v>45399</v>
+        <v>45763</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" si="2"/>
-        <v>45400</v>
+        <v>45764</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" si="2"/>
-        <v>45401</v>
+        <v>45765</v>
       </c>
       <c r="J22" s="18">
         <f t="shared" si="2"/>
-        <v>45402</v>
+        <v>45766</v>
       </c>
       <c r="K22" s="18">
         <f t="shared" si="2"/>
-        <v>45403</v>
+        <v>45767</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4417,31 +4423,31 @@
       <c r="D23" s="2"/>
       <c r="E23" s="13">
         <f t="shared" si="1"/>
-        <v>45404</v>
+        <v>45768</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" ref="F23:K54" si="4">E23+1</f>
-        <v>45405</v>
+        <v>45769</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="4"/>
-        <v>45406</v>
+        <v>45770</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" si="4"/>
-        <v>45407</v>
+        <v>45771</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" si="4"/>
-        <v>45408</v>
+        <v>45772</v>
       </c>
       <c r="J23" s="18">
         <f t="shared" si="4"/>
-        <v>45409</v>
+        <v>45773</v>
       </c>
       <c r="K23" s="18">
         <f t="shared" si="4"/>
-        <v>45410</v>
+        <v>45774</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4451,36 +4457,36 @@
       </c>
       <c r="C24" s="7">
         <f t="array" ref="C24">IF(SUM(1*(DAY(E24:K24)=1))&gt;0,K24,"")</f>
-        <v>45417</v>
+        <v>45781</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="13">
         <f t="shared" si="1"/>
-        <v>45411</v>
+        <v>45775</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="4"/>
-        <v>45412</v>
+        <v>45776</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="4"/>
-        <v>45413</v>
+        <v>45777</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" si="4"/>
-        <v>45414</v>
+        <v>45778</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" si="4"/>
-        <v>45415</v>
+        <v>45779</v>
       </c>
       <c r="J24" s="18">
         <f t="shared" si="4"/>
-        <v>45416</v>
+        <v>45780</v>
       </c>
       <c r="K24" s="18">
         <f t="shared" si="4"/>
-        <v>45417</v>
+        <v>45781</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4495,31 +4501,31 @@
       <c r="D25" s="2"/>
       <c r="E25" s="13">
         <f t="shared" si="1"/>
-        <v>45418</v>
+        <v>45782</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="4"/>
-        <v>45419</v>
+        <v>45783</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="4"/>
-        <v>45420</v>
+        <v>45784</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="4"/>
-        <v>45421</v>
+        <v>45785</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="4"/>
-        <v>45422</v>
+        <v>45786</v>
       </c>
       <c r="J25" s="18">
         <f t="shared" si="4"/>
-        <v>45423</v>
+        <v>45787</v>
       </c>
       <c r="K25" s="18">
         <f t="shared" si="4"/>
-        <v>45424</v>
+        <v>45788</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4534,31 +4540,31 @@
       <c r="D26" s="2"/>
       <c r="E26" s="13">
         <f t="shared" si="1"/>
-        <v>45425</v>
+        <v>45789</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="4"/>
-        <v>45426</v>
+        <v>45790</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="4"/>
-        <v>45427</v>
+        <v>45791</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" si="4"/>
-        <v>45428</v>
+        <v>45792</v>
       </c>
       <c r="I26" s="6">
         <f t="shared" si="4"/>
-        <v>45429</v>
+        <v>45793</v>
       </c>
       <c r="J26" s="18">
         <f t="shared" si="4"/>
-        <v>45430</v>
+        <v>45794</v>
       </c>
       <c r="K26" s="18">
         <f t="shared" si="4"/>
-        <v>45431</v>
+        <v>45795</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4573,31 +4579,31 @@
       <c r="D27" s="2"/>
       <c r="E27" s="13">
         <f t="shared" si="1"/>
-        <v>45432</v>
+        <v>45796</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="4"/>
-        <v>45433</v>
+        <v>45797</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="4"/>
-        <v>45434</v>
+        <v>45798</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" si="4"/>
-        <v>45435</v>
+        <v>45799</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" si="4"/>
-        <v>45436</v>
+        <v>45800</v>
       </c>
       <c r="J27" s="18">
         <f t="shared" si="4"/>
-        <v>45437</v>
+        <v>45801</v>
       </c>
       <c r="K27" s="18">
         <f t="shared" si="4"/>
-        <v>45438</v>
+        <v>45802</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4607,36 +4613,36 @@
       </c>
       <c r="C28" s="7">
         <f t="array" ref="C28">IF(SUM(1*(DAY(E28:K28)=1))&gt;0,K28,"")</f>
-        <v>45445</v>
+        <v>45809</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="13">
         <f t="shared" si="1"/>
-        <v>45439</v>
+        <v>45803</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="4"/>
-        <v>45440</v>
+        <v>45804</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="4"/>
-        <v>45441</v>
+        <v>45805</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" si="4"/>
-        <v>45442</v>
+        <v>45806</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" si="4"/>
-        <v>45443</v>
+        <v>45807</v>
       </c>
       <c r="J28" s="18">
         <f t="shared" si="4"/>
-        <v>45444</v>
+        <v>45808</v>
       </c>
       <c r="K28" s="18">
         <f t="shared" si="4"/>
-        <v>45445</v>
+        <v>45809</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4651,31 +4657,31 @@
       <c r="D29" s="2"/>
       <c r="E29" s="13">
         <f t="shared" si="1"/>
-        <v>45446</v>
+        <v>45810</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="4"/>
-        <v>45447</v>
+        <v>45811</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="4"/>
-        <v>45448</v>
+        <v>45812</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" si="4"/>
-        <v>45449</v>
+        <v>45813</v>
       </c>
       <c r="I29" s="6">
         <f t="shared" si="4"/>
-        <v>45450</v>
+        <v>45814</v>
       </c>
       <c r="J29" s="18">
         <f t="shared" si="4"/>
-        <v>45451</v>
+        <v>45815</v>
       </c>
       <c r="K29" s="18">
         <f t="shared" si="4"/>
-        <v>45452</v>
+        <v>45816</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4690,31 +4696,31 @@
       <c r="D30" s="2"/>
       <c r="E30" s="13">
         <f t="shared" si="1"/>
-        <v>45453</v>
+        <v>45817</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" si="4"/>
-        <v>45454</v>
+        <v>45818</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" si="4"/>
-        <v>45455</v>
+        <v>45819</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" si="4"/>
-        <v>45456</v>
+        <v>45820</v>
       </c>
       <c r="I30" s="6">
         <f t="shared" si="4"/>
-        <v>45457</v>
+        <v>45821</v>
       </c>
       <c r="J30" s="18">
         <f t="shared" si="4"/>
-        <v>45458</v>
+        <v>45822</v>
       </c>
       <c r="K30" s="18">
         <f t="shared" si="4"/>
-        <v>45459</v>
+        <v>45823</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4729,31 +4735,31 @@
       <c r="D31" s="2"/>
       <c r="E31" s="13">
         <f t="shared" si="1"/>
-        <v>45460</v>
+        <v>45824</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="4"/>
-        <v>45461</v>
+        <v>45825</v>
       </c>
       <c r="G31" s="6">
         <f t="shared" si="4"/>
-        <v>45462</v>
+        <v>45826</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" si="4"/>
-        <v>45463</v>
+        <v>45827</v>
       </c>
       <c r="I31" s="6">
         <f t="shared" si="4"/>
-        <v>45464</v>
+        <v>45828</v>
       </c>
       <c r="J31" s="18">
         <f t="shared" si="4"/>
-        <v>45465</v>
+        <v>45829</v>
       </c>
       <c r="K31" s="18">
         <f t="shared" si="4"/>
-        <v>45466</v>
+        <v>45830</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4768,31 +4774,31 @@
       <c r="D32" s="2"/>
       <c r="E32" s="13">
         <f t="shared" si="1"/>
-        <v>45467</v>
+        <v>45831</v>
       </c>
       <c r="F32" s="6">
         <f t="shared" si="4"/>
-        <v>45468</v>
+        <v>45832</v>
       </c>
       <c r="G32" s="6">
         <f t="shared" si="4"/>
-        <v>45469</v>
+        <v>45833</v>
       </c>
       <c r="H32" s="6">
         <f t="shared" si="4"/>
-        <v>45470</v>
+        <v>45834</v>
       </c>
       <c r="I32" s="6">
         <f t="shared" si="4"/>
-        <v>45471</v>
+        <v>45835</v>
       </c>
       <c r="J32" s="18">
         <f t="shared" si="4"/>
-        <v>45472</v>
+        <v>45836</v>
       </c>
       <c r="K32" s="18">
         <f t="shared" si="4"/>
-        <v>45473</v>
+        <v>45837</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4802,36 +4808,36 @@
       </c>
       <c r="C33" s="7">
         <f t="array" ref="C33">IF(SUM(1*(DAY(E33:K33)=1))&gt;0,K33,"")</f>
-        <v>45480</v>
+        <v>45844</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="13">
         <f t="shared" si="1"/>
-        <v>45474</v>
+        <v>45838</v>
       </c>
       <c r="F33" s="6">
         <f t="shared" si="4"/>
-        <v>45475</v>
+        <v>45839</v>
       </c>
       <c r="G33" s="6">
         <f t="shared" si="4"/>
-        <v>45476</v>
+        <v>45840</v>
       </c>
       <c r="H33" s="6">
         <f t="shared" si="4"/>
-        <v>45477</v>
+        <v>45841</v>
       </c>
       <c r="I33" s="6">
         <f t="shared" si="4"/>
-        <v>45478</v>
+        <v>45842</v>
       </c>
       <c r="J33" s="18">
         <f t="shared" si="4"/>
-        <v>45479</v>
+        <v>45843</v>
       </c>
       <c r="K33" s="18">
         <f t="shared" si="4"/>
-        <v>45480</v>
+        <v>45844</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4846,31 +4852,31 @@
       <c r="D34" s="2"/>
       <c r="E34" s="13">
         <f t="shared" si="1"/>
-        <v>45481</v>
+        <v>45845</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" si="4"/>
-        <v>45482</v>
+        <v>45846</v>
       </c>
       <c r="G34" s="6">
         <f t="shared" si="4"/>
-        <v>45483</v>
+        <v>45847</v>
       </c>
       <c r="H34" s="6">
         <f t="shared" si="4"/>
-        <v>45484</v>
+        <v>45848</v>
       </c>
       <c r="I34" s="6">
         <f t="shared" si="4"/>
-        <v>45485</v>
+        <v>45849</v>
       </c>
       <c r="J34" s="18">
         <f t="shared" si="4"/>
-        <v>45486</v>
+        <v>45850</v>
       </c>
       <c r="K34" s="18">
         <f t="shared" si="4"/>
-        <v>45487</v>
+        <v>45851</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4885,31 +4891,31 @@
       <c r="D35" s="2"/>
       <c r="E35" s="13">
         <f t="shared" si="1"/>
-        <v>45488</v>
+        <v>45852</v>
       </c>
       <c r="F35" s="6">
         <f t="shared" si="4"/>
-        <v>45489</v>
+        <v>45853</v>
       </c>
       <c r="G35" s="6">
         <f t="shared" si="4"/>
-        <v>45490</v>
+        <v>45854</v>
       </c>
       <c r="H35" s="6">
         <f t="shared" si="4"/>
-        <v>45491</v>
+        <v>45855</v>
       </c>
       <c r="I35" s="6">
         <f t="shared" si="4"/>
-        <v>45492</v>
+        <v>45856</v>
       </c>
       <c r="J35" s="18">
         <f t="shared" si="4"/>
-        <v>45493</v>
+        <v>45857</v>
       </c>
       <c r="K35" s="18">
         <f t="shared" si="4"/>
-        <v>45494</v>
+        <v>45858</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4924,31 +4930,31 @@
       <c r="D36" s="2"/>
       <c r="E36" s="13">
         <f t="shared" si="1"/>
-        <v>45495</v>
+        <v>45859</v>
       </c>
       <c r="F36" s="6">
         <f t="shared" si="4"/>
-        <v>45496</v>
+        <v>45860</v>
       </c>
       <c r="G36" s="6">
         <f t="shared" si="4"/>
-        <v>45497</v>
+        <v>45861</v>
       </c>
       <c r="H36" s="6">
         <f t="shared" si="4"/>
-        <v>45498</v>
+        <v>45862</v>
       </c>
       <c r="I36" s="6">
         <f t="shared" si="4"/>
-        <v>45499</v>
+        <v>45863</v>
       </c>
       <c r="J36" s="18">
         <f t="shared" si="4"/>
-        <v>45500</v>
+        <v>45864</v>
       </c>
       <c r="K36" s="18">
         <f t="shared" si="4"/>
-        <v>45501</v>
+        <v>45865</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4958,36 +4964,36 @@
       </c>
       <c r="C37" s="7">
         <f t="array" ref="C37">IF(SUM(1*(DAY(E37:K37)=1))&gt;0,K37,"")</f>
-        <v>45508</v>
+        <v>45872</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="13">
         <f t="shared" si="1"/>
-        <v>45502</v>
+        <v>45866</v>
       </c>
       <c r="F37" s="6">
         <f t="shared" si="4"/>
-        <v>45503</v>
+        <v>45867</v>
       </c>
       <c r="G37" s="6">
         <f t="shared" si="4"/>
-        <v>45504</v>
+        <v>45868</v>
       </c>
       <c r="H37" s="6">
         <f t="shared" si="4"/>
-        <v>45505</v>
+        <v>45869</v>
       </c>
       <c r="I37" s="6">
         <f t="shared" si="4"/>
-        <v>45506</v>
+        <v>45870</v>
       </c>
       <c r="J37" s="18">
         <f t="shared" si="4"/>
-        <v>45507</v>
+        <v>45871</v>
       </c>
       <c r="K37" s="18">
         <f t="shared" si="4"/>
-        <v>45508</v>
+        <v>45872</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5002,31 +5008,31 @@
       <c r="D38" s="2"/>
       <c r="E38" s="13">
         <f t="shared" si="1"/>
-        <v>45509</v>
+        <v>45873</v>
       </c>
       <c r="F38" s="6">
         <f t="shared" si="4"/>
-        <v>45510</v>
+        <v>45874</v>
       </c>
       <c r="G38" s="6">
         <f t="shared" si="4"/>
-        <v>45511</v>
+        <v>45875</v>
       </c>
       <c r="H38" s="6">
         <f t="shared" si="4"/>
-        <v>45512</v>
+        <v>45876</v>
       </c>
       <c r="I38" s="6">
         <f t="shared" si="4"/>
-        <v>45513</v>
+        <v>45877</v>
       </c>
       <c r="J38" s="18">
         <f t="shared" si="4"/>
-        <v>45514</v>
+        <v>45878</v>
       </c>
       <c r="K38" s="18">
         <f t="shared" si="4"/>
-        <v>45515</v>
+        <v>45879</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5041,31 +5047,31 @@
       <c r="D39" s="2"/>
       <c r="E39" s="13">
         <f t="shared" si="1"/>
-        <v>45516</v>
+        <v>45880</v>
       </c>
       <c r="F39" s="6">
         <f t="shared" si="4"/>
-        <v>45517</v>
+        <v>45881</v>
       </c>
       <c r="G39" s="6">
         <f t="shared" si="4"/>
-        <v>45518</v>
+        <v>45882</v>
       </c>
       <c r="H39" s="6">
         <f t="shared" si="4"/>
-        <v>45519</v>
+        <v>45883</v>
       </c>
       <c r="I39" s="6">
         <f t="shared" si="4"/>
-        <v>45520</v>
+        <v>45884</v>
       </c>
       <c r="J39" s="18">
         <f t="shared" si="4"/>
-        <v>45521</v>
+        <v>45885</v>
       </c>
       <c r="K39" s="18">
         <f t="shared" si="4"/>
-        <v>45522</v>
+        <v>45886</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5080,31 +5086,31 @@
       <c r="D40" s="2"/>
       <c r="E40" s="13">
         <f t="shared" si="1"/>
-        <v>45523</v>
+        <v>45887</v>
       </c>
       <c r="F40" s="6">
         <f t="shared" si="4"/>
-        <v>45524</v>
+        <v>45888</v>
       </c>
       <c r="G40" s="6">
         <f t="shared" si="4"/>
-        <v>45525</v>
+        <v>45889</v>
       </c>
       <c r="H40" s="6">
         <f t="shared" si="4"/>
-        <v>45526</v>
+        <v>45890</v>
       </c>
       <c r="I40" s="6">
         <f t="shared" si="4"/>
-        <v>45527</v>
+        <v>45891</v>
       </c>
       <c r="J40" s="18">
         <f t="shared" si="4"/>
-        <v>45528</v>
+        <v>45892</v>
       </c>
       <c r="K40" s="18">
         <f t="shared" si="4"/>
-        <v>45529</v>
+        <v>45893</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5112,38 +5118,38 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="7" t="str">
         <f t="array" ref="C41">IF(SUM(1*(DAY(E41:K41)=1))&gt;0,K41,"")</f>
-        <v>45536</v>
+        <v/>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="13">
         <f t="shared" si="1"/>
-        <v>45530</v>
+        <v>45894</v>
       </c>
       <c r="F41" s="6">
         <f t="shared" si="4"/>
-        <v>45531</v>
+        <v>45895</v>
       </c>
       <c r="G41" s="6">
         <f t="shared" si="4"/>
-        <v>45532</v>
+        <v>45896</v>
       </c>
       <c r="H41" s="6">
         <f t="shared" si="4"/>
-        <v>45533</v>
+        <v>45897</v>
       </c>
       <c r="I41" s="6">
         <f t="shared" si="4"/>
-        <v>45534</v>
+        <v>45898</v>
       </c>
       <c r="J41" s="18">
         <f t="shared" si="4"/>
-        <v>45535</v>
+        <v>45899</v>
       </c>
       <c r="K41" s="18">
         <f t="shared" si="4"/>
-        <v>45536</v>
+        <v>45900</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5151,38 +5157,38 @@
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="C42" s="7" t="str">
+      <c r="C42" s="7">
         <f t="array" ref="C42">IF(SUM(1*(DAY(E42:K42)=1))&gt;0,K42,"")</f>
-        <v/>
+        <v>45907</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="13">
         <f t="shared" si="1"/>
-        <v>45537</v>
+        <v>45901</v>
       </c>
       <c r="F42" s="6">
         <f t="shared" si="4"/>
-        <v>45538</v>
+        <v>45902</v>
       </c>
       <c r="G42" s="6">
         <f t="shared" si="4"/>
-        <v>45539</v>
+        <v>45903</v>
       </c>
       <c r="H42" s="6">
         <f t="shared" si="4"/>
-        <v>45540</v>
+        <v>45904</v>
       </c>
       <c r="I42" s="6">
         <f t="shared" si="4"/>
-        <v>45541</v>
+        <v>45905</v>
       </c>
       <c r="J42" s="18">
         <f t="shared" si="4"/>
-        <v>45542</v>
+        <v>45906</v>
       </c>
       <c r="K42" s="18">
         <f t="shared" si="4"/>
-        <v>45543</v>
+        <v>45907</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5197,31 +5203,31 @@
       <c r="D43" s="2"/>
       <c r="E43" s="13">
         <f t="shared" si="1"/>
-        <v>45544</v>
+        <v>45908</v>
       </c>
       <c r="F43" s="6">
         <f t="shared" si="4"/>
-        <v>45545</v>
+        <v>45909</v>
       </c>
       <c r="G43" s="6">
         <f t="shared" si="4"/>
-        <v>45546</v>
+        <v>45910</v>
       </c>
       <c r="H43" s="6">
         <f t="shared" si="4"/>
-        <v>45547</v>
+        <v>45911</v>
       </c>
       <c r="I43" s="6">
         <f t="shared" si="4"/>
-        <v>45548</v>
+        <v>45912</v>
       </c>
       <c r="J43" s="18">
         <f t="shared" si="4"/>
-        <v>45549</v>
+        <v>45913</v>
       </c>
       <c r="K43" s="18">
         <f t="shared" si="4"/>
-        <v>45550</v>
+        <v>45914</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5236,31 +5242,31 @@
       <c r="D44" s="2"/>
       <c r="E44" s="13">
         <f t="shared" si="1"/>
-        <v>45551</v>
+        <v>45915</v>
       </c>
       <c r="F44" s="6">
         <f t="shared" si="4"/>
-        <v>45552</v>
+        <v>45916</v>
       </c>
       <c r="G44" s="6">
         <f t="shared" si="4"/>
-        <v>45553</v>
+        <v>45917</v>
       </c>
       <c r="H44" s="6">
         <f t="shared" si="4"/>
-        <v>45554</v>
+        <v>45918</v>
       </c>
       <c r="I44" s="6">
         <f t="shared" si="4"/>
-        <v>45555</v>
+        <v>45919</v>
       </c>
       <c r="J44" s="18">
         <f t="shared" si="4"/>
-        <v>45556</v>
+        <v>45920</v>
       </c>
       <c r="K44" s="18">
         <f t="shared" si="4"/>
-        <v>45557</v>
+        <v>45921</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5275,31 +5281,31 @@
       <c r="D45" s="2"/>
       <c r="E45" s="13">
         <f t="shared" si="1"/>
-        <v>45558</v>
+        <v>45922</v>
       </c>
       <c r="F45" s="6">
         <f t="shared" si="4"/>
-        <v>45559</v>
+        <v>45923</v>
       </c>
       <c r="G45" s="6">
         <f t="shared" si="4"/>
-        <v>45560</v>
+        <v>45924</v>
       </c>
       <c r="H45" s="6">
         <f t="shared" si="4"/>
-        <v>45561</v>
+        <v>45925</v>
       </c>
       <c r="I45" s="6">
         <f t="shared" si="4"/>
-        <v>45562</v>
+        <v>45926</v>
       </c>
       <c r="J45" s="18">
         <f t="shared" si="4"/>
-        <v>45563</v>
+        <v>45927</v>
       </c>
       <c r="K45" s="18">
         <f t="shared" si="4"/>
-        <v>45564</v>
+        <v>45928</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5309,36 +5315,36 @@
       </c>
       <c r="C46" s="7">
         <f t="array" ref="C46">IF(SUM(1*(DAY(E46:K46)=1))&gt;0,K46,"")</f>
-        <v>45571</v>
+        <v>45935</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="13">
         <f t="shared" si="1"/>
-        <v>45565</v>
+        <v>45929</v>
       </c>
       <c r="F46" s="6">
         <f t="shared" si="4"/>
-        <v>45566</v>
+        <v>45930</v>
       </c>
       <c r="G46" s="6">
         <f t="shared" si="4"/>
-        <v>45567</v>
+        <v>45931</v>
       </c>
       <c r="H46" s="6">
         <f t="shared" si="4"/>
-        <v>45568</v>
+        <v>45932</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="4"/>
-        <v>45569</v>
+        <v>45933</v>
       </c>
       <c r="J46" s="18">
         <f t="shared" si="4"/>
-        <v>45570</v>
+        <v>45934</v>
       </c>
       <c r="K46" s="18">
         <f t="shared" si="4"/>
-        <v>45571</v>
+        <v>45935</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5353,31 +5359,31 @@
       <c r="D47" s="2"/>
       <c r="E47" s="13">
         <f t="shared" si="1"/>
-        <v>45572</v>
+        <v>45936</v>
       </c>
       <c r="F47" s="6">
         <f t="shared" si="4"/>
-        <v>45573</v>
+        <v>45937</v>
       </c>
       <c r="G47" s="6">
         <f t="shared" si="4"/>
-        <v>45574</v>
+        <v>45938</v>
       </c>
       <c r="H47" s="6">
         <f t="shared" si="4"/>
-        <v>45575</v>
+        <v>45939</v>
       </c>
       <c r="I47" s="6">
         <f t="shared" si="4"/>
-        <v>45576</v>
+        <v>45940</v>
       </c>
       <c r="J47" s="18">
         <f t="shared" si="4"/>
-        <v>45577</v>
+        <v>45941</v>
       </c>
       <c r="K47" s="18">
         <f t="shared" si="4"/>
-        <v>45578</v>
+        <v>45942</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5392,31 +5398,31 @@
       <c r="D48" s="2"/>
       <c r="E48" s="13">
         <f t="shared" si="1"/>
-        <v>45579</v>
+        <v>45943</v>
       </c>
       <c r="F48" s="6">
         <f t="shared" si="4"/>
-        <v>45580</v>
+        <v>45944</v>
       </c>
       <c r="G48" s="6">
         <f t="shared" si="4"/>
-        <v>45581</v>
+        <v>45945</v>
       </c>
       <c r="H48" s="6">
         <f t="shared" si="4"/>
-        <v>45582</v>
+        <v>45946</v>
       </c>
       <c r="I48" s="6">
         <f t="shared" si="4"/>
-        <v>45583</v>
+        <v>45947</v>
       </c>
       <c r="J48" s="18">
         <f t="shared" si="4"/>
-        <v>45584</v>
+        <v>45948</v>
       </c>
       <c r="K48" s="18">
         <f t="shared" si="4"/>
-        <v>45585</v>
+        <v>45949</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5431,31 +5437,31 @@
       <c r="D49" s="2"/>
       <c r="E49" s="13">
         <f t="shared" si="1"/>
-        <v>45586</v>
+        <v>45950</v>
       </c>
       <c r="F49" s="6">
         <f t="shared" si="4"/>
-        <v>45587</v>
+        <v>45951</v>
       </c>
       <c r="G49" s="6">
         <f t="shared" si="4"/>
-        <v>45588</v>
+        <v>45952</v>
       </c>
       <c r="H49" s="6">
         <f t="shared" si="4"/>
-        <v>45589</v>
+        <v>45953</v>
       </c>
       <c r="I49" s="6">
         <f t="shared" si="4"/>
-        <v>45590</v>
+        <v>45954</v>
       </c>
       <c r="J49" s="18">
         <f t="shared" si="4"/>
-        <v>45591</v>
+        <v>45955</v>
       </c>
       <c r="K49" s="18">
         <f t="shared" si="4"/>
-        <v>45592</v>
+        <v>45956</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5465,36 +5471,36 @@
       </c>
       <c r="C50" s="7">
         <f t="array" ref="C50">IF(SUM(1*(DAY(E50:K50)=1))&gt;0,K50,"")</f>
-        <v>45599</v>
+        <v>45963</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="13">
         <f t="shared" si="1"/>
-        <v>45593</v>
+        <v>45957</v>
       </c>
       <c r="F50" s="6">
         <f t="shared" si="4"/>
-        <v>45594</v>
+        <v>45958</v>
       </c>
       <c r="G50" s="6">
         <f t="shared" si="4"/>
-        <v>45595</v>
+        <v>45959</v>
       </c>
       <c r="H50" s="6">
         <f t="shared" si="4"/>
-        <v>45596</v>
+        <v>45960</v>
       </c>
       <c r="I50" s="6">
         <f t="shared" si="4"/>
-        <v>45597</v>
+        <v>45961</v>
       </c>
       <c r="J50" s="18">
         <f t="shared" si="4"/>
-        <v>45598</v>
+        <v>45962</v>
       </c>
       <c r="K50" s="18">
         <f t="shared" si="4"/>
-        <v>45599</v>
+        <v>45963</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5509,31 +5515,31 @@
       <c r="D51" s="2"/>
       <c r="E51" s="13">
         <f t="shared" si="1"/>
-        <v>45600</v>
+        <v>45964</v>
       </c>
       <c r="F51" s="6">
         <f t="shared" si="4"/>
-        <v>45601</v>
+        <v>45965</v>
       </c>
       <c r="G51" s="6">
         <f t="shared" si="4"/>
-        <v>45602</v>
+        <v>45966</v>
       </c>
       <c r="H51" s="6">
         <f t="shared" si="4"/>
-        <v>45603</v>
+        <v>45967</v>
       </c>
       <c r="I51" s="6">
         <f t="shared" si="4"/>
-        <v>45604</v>
+        <v>45968</v>
       </c>
       <c r="J51" s="18">
         <f t="shared" si="4"/>
-        <v>45605</v>
+        <v>45969</v>
       </c>
       <c r="K51" s="18">
         <f t="shared" si="4"/>
-        <v>45606</v>
+        <v>45970</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5548,31 +5554,31 @@
       <c r="D52" s="2"/>
       <c r="E52" s="13">
         <f t="shared" si="1"/>
-        <v>45607</v>
+        <v>45971</v>
       </c>
       <c r="F52" s="6">
         <f t="shared" si="4"/>
-        <v>45608</v>
+        <v>45972</v>
       </c>
       <c r="G52" s="6">
         <f t="shared" si="4"/>
-        <v>45609</v>
+        <v>45973</v>
       </c>
       <c r="H52" s="6">
         <f t="shared" si="4"/>
-        <v>45610</v>
+        <v>45974</v>
       </c>
       <c r="I52" s="6">
         <f t="shared" si="4"/>
-        <v>45611</v>
+        <v>45975</v>
       </c>
       <c r="J52" s="18">
         <f t="shared" si="4"/>
-        <v>45612</v>
+        <v>45976</v>
       </c>
       <c r="K52" s="18">
         <f t="shared" si="4"/>
-        <v>45613</v>
+        <v>45977</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5587,31 +5593,31 @@
       <c r="D53" s="2"/>
       <c r="E53" s="13">
         <f t="shared" si="1"/>
-        <v>45614</v>
+        <v>45978</v>
       </c>
       <c r="F53" s="6">
         <f t="shared" si="4"/>
-        <v>45615</v>
+        <v>45979</v>
       </c>
       <c r="G53" s="6">
         <f t="shared" si="4"/>
-        <v>45616</v>
+        <v>45980</v>
       </c>
       <c r="H53" s="6">
         <f t="shared" si="4"/>
-        <v>45617</v>
+        <v>45981</v>
       </c>
       <c r="I53" s="6">
         <f>H53+1</f>
-        <v>45618</v>
+        <v>45982</v>
       </c>
       <c r="J53" s="18">
         <f t="shared" si="4"/>
-        <v>45619</v>
+        <v>45983</v>
       </c>
       <c r="K53" s="18">
         <f t="shared" si="4"/>
-        <v>45620</v>
+        <v>45984</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5619,38 +5625,38 @@
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="7" t="str">
         <f t="array" ref="C54">IF(SUM(1*(DAY(E54:K54)=1))&gt;0,K54,"")</f>
-        <v>45627</v>
+        <v/>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="13">
         <f t="shared" si="1"/>
-        <v>45621</v>
+        <v>45985</v>
       </c>
       <c r="F54" s="6">
         <f t="shared" si="4"/>
-        <v>45622</v>
+        <v>45986</v>
       </c>
       <c r="G54" s="6">
         <f t="shared" si="4"/>
-        <v>45623</v>
+        <v>45987</v>
       </c>
       <c r="H54" s="6">
         <f t="shared" si="4"/>
-        <v>45624</v>
+        <v>45988</v>
       </c>
       <c r="I54" s="6">
         <f t="shared" si="4"/>
-        <v>45625</v>
+        <v>45989</v>
       </c>
       <c r="J54" s="18">
         <f t="shared" si="4"/>
-        <v>45626</v>
+        <v>45990</v>
       </c>
       <c r="K54" s="18">
         <f t="shared" si="4"/>
-        <v>45627</v>
+        <v>45991</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5658,38 +5664,38 @@
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="C55" s="7" t="str">
+      <c r="C55" s="7">
         <f t="array" ref="C55">IF(SUM(1*(DAY(E55:K55)=1))&gt;0,K55,"")</f>
-        <v/>
+        <v>45998</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="13">
         <f t="shared" si="1"/>
-        <v>45628</v>
+        <v>45992</v>
       </c>
       <c r="F55" s="6">
         <f t="shared" ref="F55:K59" si="5">E55+1</f>
-        <v>45629</v>
+        <v>45993</v>
       </c>
       <c r="G55" s="6">
         <f t="shared" si="5"/>
-        <v>45630</v>
+        <v>45994</v>
       </c>
       <c r="H55" s="6">
         <f t="shared" si="5"/>
-        <v>45631</v>
+        <v>45995</v>
       </c>
       <c r="I55" s="6">
         <f t="shared" si="5"/>
-        <v>45632</v>
+        <v>45996</v>
       </c>
       <c r="J55" s="18">
         <f t="shared" si="5"/>
-        <v>45633</v>
+        <v>45997</v>
       </c>
       <c r="K55" s="18">
         <f t="shared" si="5"/>
-        <v>45634</v>
+        <v>45998</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5704,31 +5710,31 @@
       <c r="D56" s="2"/>
       <c r="E56" s="13">
         <f t="shared" si="1"/>
-        <v>45635</v>
+        <v>45999</v>
       </c>
       <c r="F56" s="6">
         <f t="shared" si="5"/>
-        <v>45636</v>
+        <v>46000</v>
       </c>
       <c r="G56" s="6">
         <f t="shared" si="5"/>
-        <v>45637</v>
+        <v>46001</v>
       </c>
       <c r="H56" s="6">
         <f t="shared" si="5"/>
-        <v>45638</v>
+        <v>46002</v>
       </c>
       <c r="I56" s="6">
         <f t="shared" si="5"/>
-        <v>45639</v>
+        <v>46003</v>
       </c>
       <c r="J56" s="18">
         <f t="shared" si="5"/>
-        <v>45640</v>
+        <v>46004</v>
       </c>
       <c r="K56" s="18">
         <f t="shared" si="5"/>
-        <v>45641</v>
+        <v>46005</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5743,31 +5749,31 @@
       <c r="D57" s="2"/>
       <c r="E57" s="13">
         <f t="shared" si="1"/>
-        <v>45642</v>
+        <v>46006</v>
       </c>
       <c r="F57" s="6">
         <f t="shared" si="5"/>
-        <v>45643</v>
+        <v>46007</v>
       </c>
       <c r="G57" s="6">
         <f t="shared" si="5"/>
-        <v>45644</v>
+        <v>46008</v>
       </c>
       <c r="H57" s="6">
         <f t="shared" si="5"/>
-        <v>45645</v>
+        <v>46009</v>
       </c>
       <c r="I57" s="6">
         <f t="shared" si="5"/>
-        <v>45646</v>
+        <v>46010</v>
       </c>
       <c r="J57" s="18">
         <f t="shared" si="5"/>
-        <v>45647</v>
+        <v>46011</v>
       </c>
       <c r="K57" s="18">
         <f t="shared" si="5"/>
-        <v>45648</v>
+        <v>46012</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5782,31 +5788,31 @@
       <c r="D58" s="2"/>
       <c r="E58" s="13">
         <f t="shared" si="1"/>
-        <v>45649</v>
+        <v>46013</v>
       </c>
       <c r="F58" s="6">
         <f t="shared" si="5"/>
-        <v>45650</v>
+        <v>46014</v>
       </c>
       <c r="G58" s="6">
         <f t="shared" si="5"/>
-        <v>45651</v>
+        <v>46015</v>
       </c>
       <c r="H58" s="6">
         <f t="shared" si="5"/>
-        <v>45652</v>
+        <v>46016</v>
       </c>
       <c r="I58" s="6">
         <f t="shared" si="5"/>
-        <v>45653</v>
+        <v>46017</v>
       </c>
       <c r="J58" s="18">
         <f t="shared" si="5"/>
-        <v>45654</v>
+        <v>46018</v>
       </c>
       <c r="K58" s="18">
         <f t="shared" si="5"/>
-        <v>45655</v>
+        <v>46019</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5816,36 +5822,36 @@
       </c>
       <c r="C59" s="7">
         <f t="array" ref="C59">IF(SUM(1*(DAY(E59:K59)=1))&gt;0,K59,"")</f>
-        <v>45662</v>
+        <v>46026</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="13">
         <f t="shared" si="1"/>
-        <v>45656</v>
+        <v>46020</v>
       </c>
       <c r="F59" s="6">
         <f t="shared" si="5"/>
-        <v>45657</v>
+        <v>46021</v>
       </c>
       <c r="G59" s="6">
         <f>F59+1</f>
-        <v>45658</v>
+        <v>46022</v>
       </c>
       <c r="H59" s="6">
         <f>G59+1</f>
-        <v>45659</v>
+        <v>46023</v>
       </c>
       <c r="I59" s="6">
         <f>H59+1</f>
-        <v>45660</v>
+        <v>46024</v>
       </c>
       <c r="J59" s="18">
         <f>I59+1</f>
-        <v>45661</v>
+        <v>46025</v>
       </c>
       <c r="K59" s="18">
         <f>J59+1</f>
-        <v>45662</v>
+        <v>46026</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5860,31 +5866,31 @@
       <c r="D60" s="2"/>
       <c r="E60" s="13">
         <f t="shared" ref="E60:E77" si="7">K59+1</f>
-        <v>45663</v>
+        <v>46027</v>
       </c>
       <c r="F60" s="6">
         <f t="shared" ref="F60:F77" si="8">E60+1</f>
-        <v>45664</v>
+        <v>46028</v>
       </c>
       <c r="G60" s="6">
         <f t="shared" ref="G60:G77" si="9">F60+1</f>
-        <v>45665</v>
+        <v>46029</v>
       </c>
       <c r="H60" s="6">
         <f t="shared" ref="H60:H77" si="10">G60+1</f>
-        <v>45666</v>
+        <v>46030</v>
       </c>
       <c r="I60" s="6">
         <f t="shared" ref="I60:I77" si="11">H60+1</f>
-        <v>45667</v>
+        <v>46031</v>
       </c>
       <c r="J60" s="18">
         <f t="shared" ref="J60:J77" si="12">I60+1</f>
-        <v>45668</v>
+        <v>46032</v>
       </c>
       <c r="K60" s="18">
         <f t="shared" ref="K60:K77" si="13">J60+1</f>
-        <v>45669</v>
+        <v>46033</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5899,31 +5905,31 @@
       <c r="D61" s="2"/>
       <c r="E61" s="13">
         <f t="shared" si="7"/>
-        <v>45670</v>
+        <v>46034</v>
       </c>
       <c r="F61" s="6">
         <f t="shared" si="8"/>
-        <v>45671</v>
+        <v>46035</v>
       </c>
       <c r="G61" s="6">
         <f t="shared" si="9"/>
-        <v>45672</v>
+        <v>46036</v>
       </c>
       <c r="H61" s="6">
         <f t="shared" si="10"/>
-        <v>45673</v>
+        <v>46037</v>
       </c>
       <c r="I61" s="6">
         <f t="shared" si="11"/>
-        <v>45674</v>
+        <v>46038</v>
       </c>
       <c r="J61" s="18">
         <f t="shared" si="12"/>
-        <v>45675</v>
+        <v>46039</v>
       </c>
       <c r="K61" s="18">
         <f t="shared" si="13"/>
-        <v>45676</v>
+        <v>46040</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5938,31 +5944,31 @@
       <c r="D62" s="2"/>
       <c r="E62" s="13">
         <f t="shared" si="7"/>
-        <v>45677</v>
+        <v>46041</v>
       </c>
       <c r="F62" s="6">
         <f t="shared" si="8"/>
-        <v>45678</v>
+        <v>46042</v>
       </c>
       <c r="G62" s="6">
         <f t="shared" si="9"/>
-        <v>45679</v>
+        <v>46043</v>
       </c>
       <c r="H62" s="6">
         <f t="shared" si="10"/>
-        <v>45680</v>
+        <v>46044</v>
       </c>
       <c r="I62" s="6">
         <f t="shared" si="11"/>
-        <v>45681</v>
+        <v>46045</v>
       </c>
       <c r="J62" s="18">
         <f t="shared" si="12"/>
-        <v>45682</v>
+        <v>46046</v>
       </c>
       <c r="K62" s="18">
         <f t="shared" si="13"/>
-        <v>45683</v>
+        <v>46047</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5972,36 +5978,36 @@
       </c>
       <c r="C63" s="7">
         <f t="array" ref="C63">IF(SUM(1*(DAY(E63:K63)=1))&gt;0,K63,"")</f>
-        <v>45690</v>
+        <v>46054</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="13">
         <f t="shared" si="7"/>
-        <v>45684</v>
+        <v>46048</v>
       </c>
       <c r="F63" s="6">
         <f t="shared" si="8"/>
-        <v>45685</v>
+        <v>46049</v>
       </c>
       <c r="G63" s="6">
         <f t="shared" si="9"/>
-        <v>45686</v>
+        <v>46050</v>
       </c>
       <c r="H63" s="6">
         <f t="shared" si="10"/>
-        <v>45687</v>
+        <v>46051</v>
       </c>
       <c r="I63" s="6">
         <f t="shared" si="11"/>
-        <v>45688</v>
+        <v>46052</v>
       </c>
       <c r="J63" s="18">
         <f t="shared" si="12"/>
-        <v>45689</v>
+        <v>46053</v>
       </c>
       <c r="K63" s="18">
         <f t="shared" si="13"/>
-        <v>45690</v>
+        <v>46054</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6016,31 +6022,31 @@
       <c r="D64" s="2"/>
       <c r="E64" s="13">
         <f t="shared" si="7"/>
-        <v>45691</v>
+        <v>46055</v>
       </c>
       <c r="F64" s="6">
         <f t="shared" si="8"/>
-        <v>45692</v>
+        <v>46056</v>
       </c>
       <c r="G64" s="6">
         <f t="shared" si="9"/>
-        <v>45693</v>
+        <v>46057</v>
       </c>
       <c r="H64" s="6">
         <f t="shared" si="10"/>
-        <v>45694</v>
+        <v>46058</v>
       </c>
       <c r="I64" s="6">
         <f t="shared" si="11"/>
-        <v>45695</v>
+        <v>46059</v>
       </c>
       <c r="J64" s="18">
         <f t="shared" si="12"/>
-        <v>45696</v>
+        <v>46060</v>
       </c>
       <c r="K64" s="18">
         <f t="shared" si="13"/>
-        <v>45697</v>
+        <v>46061</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6055,31 +6061,31 @@
       <c r="D65" s="2"/>
       <c r="E65" s="13">
         <f t="shared" si="7"/>
-        <v>45698</v>
+        <v>46062</v>
       </c>
       <c r="F65" s="6">
         <f t="shared" si="8"/>
-        <v>45699</v>
+        <v>46063</v>
       </c>
       <c r="G65" s="6">
         <f t="shared" si="9"/>
-        <v>45700</v>
+        <v>46064</v>
       </c>
       <c r="H65" s="6">
         <f t="shared" si="10"/>
-        <v>45701</v>
+        <v>46065</v>
       </c>
       <c r="I65" s="6">
         <f t="shared" si="11"/>
-        <v>45702</v>
+        <v>46066</v>
       </c>
       <c r="J65" s="18">
         <f t="shared" si="12"/>
-        <v>45703</v>
+        <v>46067</v>
       </c>
       <c r="K65" s="18">
         <f t="shared" si="13"/>
-        <v>45704</v>
+        <v>46068</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6094,31 +6100,31 @@
       <c r="D66" s="2"/>
       <c r="E66" s="13">
         <f t="shared" si="7"/>
-        <v>45705</v>
+        <v>46069</v>
       </c>
       <c r="F66" s="6">
         <f t="shared" si="8"/>
-        <v>45706</v>
+        <v>46070</v>
       </c>
       <c r="G66" s="6">
         <f t="shared" si="9"/>
-        <v>45707</v>
+        <v>46071</v>
       </c>
       <c r="H66" s="6">
         <f t="shared" si="10"/>
-        <v>45708</v>
+        <v>46072</v>
       </c>
       <c r="I66" s="6">
         <f t="shared" si="11"/>
-        <v>45709</v>
+        <v>46073</v>
       </c>
       <c r="J66" s="18">
         <f t="shared" si="12"/>
-        <v>45710</v>
+        <v>46074</v>
       </c>
       <c r="K66" s="18">
         <f t="shared" si="13"/>
-        <v>45711</v>
+        <v>46075</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6128,36 +6134,36 @@
       </c>
       <c r="C67" s="7">
         <f t="array" ref="C67">IF(SUM(1*(DAY(E67:K67)=1))&gt;0,K67,"")</f>
-        <v>45718</v>
+        <v>46082</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="13">
         <f t="shared" si="7"/>
-        <v>45712</v>
+        <v>46076</v>
       </c>
       <c r="F67" s="6">
         <f t="shared" si="8"/>
-        <v>45713</v>
+        <v>46077</v>
       </c>
       <c r="G67" s="6">
         <f t="shared" si="9"/>
-        <v>45714</v>
+        <v>46078</v>
       </c>
       <c r="H67" s="6">
         <f t="shared" si="10"/>
-        <v>45715</v>
+        <v>46079</v>
       </c>
       <c r="I67" s="6">
         <f t="shared" si="11"/>
-        <v>45716</v>
+        <v>46080</v>
       </c>
       <c r="J67" s="18">
         <f t="shared" si="12"/>
-        <v>45717</v>
+        <v>46081</v>
       </c>
       <c r="K67" s="18">
         <f t="shared" si="13"/>
-        <v>45718</v>
+        <v>46082</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6172,31 +6178,31 @@
       <c r="D68" s="2"/>
       <c r="E68" s="13">
         <f t="shared" si="7"/>
-        <v>45719</v>
+        <v>46083</v>
       </c>
       <c r="F68" s="6">
         <f t="shared" si="8"/>
-        <v>45720</v>
+        <v>46084</v>
       </c>
       <c r="G68" s="6">
         <f t="shared" si="9"/>
-        <v>45721</v>
+        <v>46085</v>
       </c>
       <c r="H68" s="6">
         <f t="shared" si="10"/>
-        <v>45722</v>
+        <v>46086</v>
       </c>
       <c r="I68" s="6">
         <f t="shared" si="11"/>
-        <v>45723</v>
+        <v>46087</v>
       </c>
       <c r="J68" s="18">
         <f t="shared" si="12"/>
-        <v>45724</v>
+        <v>46088</v>
       </c>
       <c r="K68" s="18">
         <f t="shared" si="13"/>
-        <v>45725</v>
+        <v>46089</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6211,31 +6217,31 @@
       <c r="D69" s="2"/>
       <c r="E69" s="13">
         <f t="shared" si="7"/>
-        <v>45726</v>
+        <v>46090</v>
       </c>
       <c r="F69" s="6">
         <f t="shared" si="8"/>
-        <v>45727</v>
+        <v>46091</v>
       </c>
       <c r="G69" s="6">
         <f t="shared" si="9"/>
-        <v>45728</v>
+        <v>46092</v>
       </c>
       <c r="H69" s="6">
         <f t="shared" si="10"/>
-        <v>45729</v>
+        <v>46093</v>
       </c>
       <c r="I69" s="6">
         <f t="shared" si="11"/>
-        <v>45730</v>
+        <v>46094</v>
       </c>
       <c r="J69" s="18">
         <f t="shared" si="12"/>
-        <v>45731</v>
+        <v>46095</v>
       </c>
       <c r="K69" s="18">
         <f t="shared" si="13"/>
-        <v>45732</v>
+        <v>46096</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6250,31 +6256,31 @@
       <c r="D70" s="2"/>
       <c r="E70" s="13">
         <f t="shared" si="7"/>
-        <v>45733</v>
+        <v>46097</v>
       </c>
       <c r="F70" s="6">
         <f t="shared" si="8"/>
-        <v>45734</v>
+        <v>46098</v>
       </c>
       <c r="G70" s="6">
         <f t="shared" si="9"/>
-        <v>45735</v>
+        <v>46099</v>
       </c>
       <c r="H70" s="6">
         <f t="shared" si="10"/>
-        <v>45736</v>
+        <v>46100</v>
       </c>
       <c r="I70" s="6">
         <f t="shared" si="11"/>
-        <v>45737</v>
+        <v>46101</v>
       </c>
       <c r="J70" s="18">
         <f t="shared" si="12"/>
-        <v>45738</v>
+        <v>46102</v>
       </c>
       <c r="K70" s="18">
         <f t="shared" si="13"/>
-        <v>45739</v>
+        <v>46103</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6289,31 +6295,31 @@
       <c r="D71" s="2"/>
       <c r="E71" s="13">
         <f t="shared" si="7"/>
-        <v>45740</v>
+        <v>46104</v>
       </c>
       <c r="F71" s="6">
         <f t="shared" si="8"/>
-        <v>45741</v>
+        <v>46105</v>
       </c>
       <c r="G71" s="6">
         <f t="shared" si="9"/>
-        <v>45742</v>
+        <v>46106</v>
       </c>
       <c r="H71" s="6">
         <f t="shared" si="10"/>
-        <v>45743</v>
+        <v>46107</v>
       </c>
       <c r="I71" s="6">
         <f t="shared" si="11"/>
-        <v>45744</v>
+        <v>46108</v>
       </c>
       <c r="J71" s="18">
         <f t="shared" si="12"/>
-        <v>45745</v>
+        <v>46109</v>
       </c>
       <c r="K71" s="18">
         <f t="shared" si="13"/>
-        <v>45746</v>
+        <v>46110</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6323,36 +6329,36 @@
       </c>
       <c r="C72" s="7">
         <f t="array" ref="C72">IF(SUM(1*(DAY(E72:K72)=1))&gt;0,K72,"")</f>
-        <v>45753</v>
+        <v>46117</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="13">
         <f t="shared" si="7"/>
-        <v>45747</v>
+        <v>46111</v>
       </c>
       <c r="F72" s="6">
         <f t="shared" si="8"/>
-        <v>45748</v>
+        <v>46112</v>
       </c>
       <c r="G72" s="6">
         <f t="shared" si="9"/>
-        <v>45749</v>
+        <v>46113</v>
       </c>
       <c r="H72" s="6">
         <f t="shared" si="10"/>
-        <v>45750</v>
+        <v>46114</v>
       </c>
       <c r="I72" s="6">
         <f t="shared" si="11"/>
-        <v>45751</v>
+        <v>46115</v>
       </c>
       <c r="J72" s="18">
         <f t="shared" si="12"/>
-        <v>45752</v>
+        <v>46116</v>
       </c>
       <c r="K72" s="18">
         <f t="shared" si="13"/>
-        <v>45753</v>
+        <v>46117</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6367,31 +6373,31 @@
       <c r="D73" s="2"/>
       <c r="E73" s="13">
         <f t="shared" si="7"/>
-        <v>45754</v>
+        <v>46118</v>
       </c>
       <c r="F73" s="6">
         <f t="shared" si="8"/>
-        <v>45755</v>
+        <v>46119</v>
       </c>
       <c r="G73" s="6">
         <f t="shared" si="9"/>
-        <v>45756</v>
+        <v>46120</v>
       </c>
       <c r="H73" s="6">
         <f t="shared" si="10"/>
-        <v>45757</v>
+        <v>46121</v>
       </c>
       <c r="I73" s="6">
         <f t="shared" si="11"/>
-        <v>45758</v>
+        <v>46122</v>
       </c>
       <c r="J73" s="18">
         <f t="shared" si="12"/>
-        <v>45759</v>
+        <v>46123</v>
       </c>
       <c r="K73" s="18">
         <f t="shared" si="13"/>
-        <v>45760</v>
+        <v>46124</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6406,31 +6412,31 @@
       <c r="D74" s="2"/>
       <c r="E74" s="13">
         <f t="shared" si="7"/>
-        <v>45761</v>
+        <v>46125</v>
       </c>
       <c r="F74" s="6">
         <f t="shared" si="8"/>
-        <v>45762</v>
+        <v>46126</v>
       </c>
       <c r="G74" s="6">
         <f t="shared" si="9"/>
-        <v>45763</v>
+        <v>46127</v>
       </c>
       <c r="H74" s="6">
         <f t="shared" si="10"/>
-        <v>45764</v>
+        <v>46128</v>
       </c>
       <c r="I74" s="6">
         <f t="shared" si="11"/>
-        <v>45765</v>
+        <v>46129</v>
       </c>
       <c r="J74" s="18">
         <f t="shared" si="12"/>
-        <v>45766</v>
+        <v>46130</v>
       </c>
       <c r="K74" s="18">
         <f t="shared" si="13"/>
-        <v>45767</v>
+        <v>46131</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6445,31 +6451,31 @@
       <c r="D75" s="2"/>
       <c r="E75" s="13">
         <f t="shared" si="7"/>
-        <v>45768</v>
+        <v>46132</v>
       </c>
       <c r="F75" s="6">
         <f t="shared" si="8"/>
-        <v>45769</v>
+        <v>46133</v>
       </c>
       <c r="G75" s="6">
         <f t="shared" si="9"/>
-        <v>45770</v>
+        <v>46134</v>
       </c>
       <c r="H75" s="6">
         <f t="shared" si="10"/>
-        <v>45771</v>
+        <v>46135</v>
       </c>
       <c r="I75" s="6">
         <f t="shared" si="11"/>
-        <v>45772</v>
+        <v>46136</v>
       </c>
       <c r="J75" s="18">
         <f t="shared" si="12"/>
-        <v>45773</v>
+        <v>46137</v>
       </c>
       <c r="K75" s="18">
         <f t="shared" si="13"/>
-        <v>45774</v>
+        <v>46138</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6479,36 +6485,36 @@
       </c>
       <c r="C76" s="7">
         <f t="array" ref="C76">IF(SUM(1*(DAY(E76:K76)=1))&gt;0,K76,"")</f>
-        <v>45781</v>
+        <v>46145</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="13">
         <f t="shared" si="7"/>
-        <v>45775</v>
+        <v>46139</v>
       </c>
       <c r="F76" s="6">
         <f t="shared" si="8"/>
-        <v>45776</v>
+        <v>46140</v>
       </c>
       <c r="G76" s="6">
         <f t="shared" si="9"/>
-        <v>45777</v>
+        <v>46141</v>
       </c>
       <c r="H76" s="6">
         <f t="shared" si="10"/>
-        <v>45778</v>
+        <v>46142</v>
       </c>
       <c r="I76" s="6">
         <f t="shared" si="11"/>
-        <v>45779</v>
+        <v>46143</v>
       </c>
       <c r="J76" s="18">
         <f t="shared" si="12"/>
-        <v>45780</v>
+        <v>46144</v>
       </c>
       <c r="K76" s="18">
         <f t="shared" si="13"/>
-        <v>45781</v>
+        <v>46145</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6523,31 +6529,31 @@
       <c r="D77" s="2"/>
       <c r="E77" s="13">
         <f t="shared" si="7"/>
-        <v>45782</v>
+        <v>46146</v>
       </c>
       <c r="F77" s="6">
         <f t="shared" si="8"/>
-        <v>45783</v>
+        <v>46147</v>
       </c>
       <c r="G77" s="6">
         <f t="shared" si="9"/>
-        <v>45784</v>
+        <v>46148</v>
       </c>
       <c r="H77" s="6">
         <f t="shared" si="10"/>
-        <v>45785</v>
+        <v>46149</v>
       </c>
       <c r="I77" s="6">
         <f t="shared" si="11"/>
-        <v>45786</v>
+        <v>46150</v>
       </c>
       <c r="J77" s="18">
         <f t="shared" si="12"/>
-        <v>45787</v>
+        <v>46151</v>
       </c>
       <c r="K77" s="18">
         <f t="shared" si="13"/>
-        <v>45788</v>
+        <v>46152</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6562,31 +6568,31 @@
       <c r="D78" s="2"/>
       <c r="E78" s="13">
         <f t="shared" ref="E78:E84" si="15">K77+1</f>
-        <v>45789</v>
+        <v>46153</v>
       </c>
       <c r="F78" s="6">
         <f t="shared" ref="F78:F84" si="16">E78+1</f>
-        <v>45790</v>
+        <v>46154</v>
       </c>
       <c r="G78" s="6">
         <f t="shared" ref="G78:G84" si="17">F78+1</f>
-        <v>45791</v>
+        <v>46155</v>
       </c>
       <c r="H78" s="6">
         <f t="shared" ref="H78:H84" si="18">G78+1</f>
-        <v>45792</v>
+        <v>46156</v>
       </c>
       <c r="I78" s="6">
         <f t="shared" ref="I78:I84" si="19">H78+1</f>
-        <v>45793</v>
+        <v>46157</v>
       </c>
       <c r="J78" s="18">
         <f t="shared" ref="J78:J84" si="20">I78+1</f>
-        <v>45794</v>
+        <v>46158</v>
       </c>
       <c r="K78" s="18">
         <f t="shared" ref="K78:K84" si="21">J78+1</f>
-        <v>45795</v>
+        <v>46159</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6601,31 +6607,31 @@
       <c r="D79" s="2"/>
       <c r="E79" s="13">
         <f t="shared" si="15"/>
-        <v>45796</v>
+        <v>46160</v>
       </c>
       <c r="F79" s="6">
         <f t="shared" si="16"/>
-        <v>45797</v>
+        <v>46161</v>
       </c>
       <c r="G79" s="6">
         <f t="shared" si="17"/>
-        <v>45798</v>
+        <v>46162</v>
       </c>
       <c r="H79" s="6">
         <f t="shared" si="18"/>
-        <v>45799</v>
+        <v>46163</v>
       </c>
       <c r="I79" s="6">
         <f t="shared" si="19"/>
-        <v>45800</v>
+        <v>46164</v>
       </c>
       <c r="J79" s="18">
         <f t="shared" si="20"/>
-        <v>45801</v>
+        <v>46165</v>
       </c>
       <c r="K79" s="18">
         <f t="shared" si="21"/>
-        <v>45802</v>
+        <v>46166</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6633,38 +6639,38 @@
         <f t="shared" si="14"/>
         <v>22</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="7" t="str">
         <f t="array" ref="C80">IF(SUM(1*(DAY(E80:K80)=1))&gt;0,K80,"")</f>
-        <v>45809</v>
+        <v/>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="13">
         <f t="shared" si="15"/>
-        <v>45803</v>
+        <v>46167</v>
       </c>
       <c r="F80" s="6">
         <f t="shared" si="16"/>
-        <v>45804</v>
+        <v>46168</v>
       </c>
       <c r="G80" s="6">
         <f t="shared" si="17"/>
-        <v>45805</v>
+        <v>46169</v>
       </c>
       <c r="H80" s="6">
         <f t="shared" si="18"/>
-        <v>45806</v>
+        <v>46170</v>
       </c>
       <c r="I80" s="6">
         <f t="shared" si="19"/>
-        <v>45807</v>
+        <v>46171</v>
       </c>
       <c r="J80" s="18">
         <f t="shared" si="20"/>
-        <v>45808</v>
+        <v>46172</v>
       </c>
       <c r="K80" s="18">
         <f t="shared" si="21"/>
-        <v>45809</v>
+        <v>46173</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6672,38 +6678,38 @@
         <f t="shared" si="14"/>
         <v>23</v>
       </c>
-      <c r="C81" s="7" t="str">
+      <c r="C81" s="7">
         <f t="array" ref="C81">IF(SUM(1*(DAY(E81:K81)=1))&gt;0,K81,"")</f>
-        <v/>
+        <v>46180</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="13">
         <f t="shared" si="15"/>
-        <v>45810</v>
+        <v>46174</v>
       </c>
       <c r="F81" s="6">
         <f t="shared" si="16"/>
-        <v>45811</v>
+        <v>46175</v>
       </c>
       <c r="G81" s="6">
         <f t="shared" si="17"/>
-        <v>45812</v>
+        <v>46176</v>
       </c>
       <c r="H81" s="6">
         <f t="shared" si="18"/>
-        <v>45813</v>
+        <v>46177</v>
       </c>
       <c r="I81" s="6">
         <f t="shared" si="19"/>
-        <v>45814</v>
+        <v>46178</v>
       </c>
       <c r="J81" s="18">
         <f t="shared" si="20"/>
-        <v>45815</v>
+        <v>46179</v>
       </c>
       <c r="K81" s="18">
         <f t="shared" si="21"/>
-        <v>45816</v>
+        <v>46180</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6718,31 +6724,31 @@
       <c r="D82" s="2"/>
       <c r="E82" s="13">
         <f t="shared" si="15"/>
-        <v>45817</v>
+        <v>46181</v>
       </c>
       <c r="F82" s="6">
         <f t="shared" si="16"/>
-        <v>45818</v>
+        <v>46182</v>
       </c>
       <c r="G82" s="6">
         <f t="shared" si="17"/>
-        <v>45819</v>
+        <v>46183</v>
       </c>
       <c r="H82" s="6">
         <f t="shared" si="18"/>
-        <v>45820</v>
+        <v>46184</v>
       </c>
       <c r="I82" s="6">
         <f t="shared" si="19"/>
-        <v>45821</v>
+        <v>46185</v>
       </c>
       <c r="J82" s="18">
         <f t="shared" si="20"/>
-        <v>45822</v>
+        <v>46186</v>
       </c>
       <c r="K82" s="18">
         <f t="shared" si="21"/>
-        <v>45823</v>
+        <v>46187</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6757,31 +6763,31 @@
       <c r="D83" s="2"/>
       <c r="E83" s="13">
         <f t="shared" si="15"/>
-        <v>45824</v>
+        <v>46188</v>
       </c>
       <c r="F83" s="6">
         <f t="shared" si="16"/>
-        <v>45825</v>
+        <v>46189</v>
       </c>
       <c r="G83" s="6">
         <f t="shared" si="17"/>
-        <v>45826</v>
+        <v>46190</v>
       </c>
       <c r="H83" s="6">
         <f t="shared" si="18"/>
-        <v>45827</v>
+        <v>46191</v>
       </c>
       <c r="I83" s="6">
         <f t="shared" si="19"/>
-        <v>45828</v>
+        <v>46192</v>
       </c>
       <c r="J83" s="18">
         <f t="shared" si="20"/>
-        <v>45829</v>
+        <v>46193</v>
       </c>
       <c r="K83" s="18">
         <f t="shared" si="21"/>
-        <v>45830</v>
+        <v>46194</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6796,31 +6802,31 @@
       <c r="D84" s="2"/>
       <c r="E84" s="13">
         <f t="shared" si="15"/>
-        <v>45831</v>
+        <v>46195</v>
       </c>
       <c r="F84" s="6">
         <f t="shared" si="16"/>
-        <v>45832</v>
+        <v>46196</v>
       </c>
       <c r="G84" s="6">
         <f t="shared" si="17"/>
-        <v>45833</v>
+        <v>46197</v>
       </c>
       <c r="H84" s="6">
         <f t="shared" si="18"/>
-        <v>45834</v>
+        <v>46198</v>
       </c>
       <c r="I84" s="6">
         <f t="shared" si="19"/>
-        <v>45835</v>
+        <v>46199</v>
       </c>
       <c r="J84" s="18">
         <f t="shared" si="20"/>
-        <v>45836</v>
+        <v>46200</v>
       </c>
       <c r="K84" s="18">
         <f t="shared" si="21"/>
-        <v>45837</v>
+        <v>46201</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6830,36 +6836,36 @@
       </c>
       <c r="C85" s="7">
         <f t="array" ref="C85">IF(SUM(1*(DAY(E85:K85)=1))&gt;0,K85,"")</f>
-        <v>45844</v>
+        <v>46208</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="13">
         <f t="shared" ref="E85:E89" si="23">K84+1</f>
-        <v>45838</v>
+        <v>46202</v>
       </c>
       <c r="F85" s="6">
         <f t="shared" ref="F85:F89" si="24">E85+1</f>
-        <v>45839</v>
+        <v>46203</v>
       </c>
       <c r="G85" s="6">
         <f t="shared" ref="G85:G89" si="25">F85+1</f>
-        <v>45840</v>
+        <v>46204</v>
       </c>
       <c r="H85" s="6">
         <f t="shared" ref="H85:H89" si="26">G85+1</f>
-        <v>45841</v>
+        <v>46205</v>
       </c>
       <c r="I85" s="6">
         <f t="shared" ref="I85:I89" si="27">H85+1</f>
-        <v>45842</v>
+        <v>46206</v>
       </c>
       <c r="J85" s="18">
         <f t="shared" ref="J85:J89" si="28">I85+1</f>
-        <v>45843</v>
+        <v>46207</v>
       </c>
       <c r="K85" s="18">
         <f t="shared" ref="K85:K89" si="29">J85+1</f>
-        <v>45844</v>
+        <v>46208</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6874,31 +6880,31 @@
       <c r="D86" s="2"/>
       <c r="E86" s="13">
         <f t="shared" si="23"/>
-        <v>45845</v>
+        <v>46209</v>
       </c>
       <c r="F86" s="6">
         <f t="shared" si="24"/>
-        <v>45846</v>
+        <v>46210</v>
       </c>
       <c r="G86" s="6">
         <f t="shared" si="25"/>
-        <v>45847</v>
+        <v>46211</v>
       </c>
       <c r="H86" s="6">
         <f t="shared" si="26"/>
-        <v>45848</v>
+        <v>46212</v>
       </c>
       <c r="I86" s="6">
         <f t="shared" si="27"/>
-        <v>45849</v>
+        <v>46213</v>
       </c>
       <c r="J86" s="18">
         <f t="shared" si="28"/>
-        <v>45850</v>
+        <v>46214</v>
       </c>
       <c r="K86" s="18">
         <f t="shared" si="29"/>
-        <v>45851</v>
+        <v>46215</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6913,31 +6919,31 @@
       <c r="D87" s="2"/>
       <c r="E87" s="13">
         <f t="shared" si="23"/>
-        <v>45852</v>
+        <v>46216</v>
       </c>
       <c r="F87" s="6">
         <f t="shared" si="24"/>
-        <v>45853</v>
+        <v>46217</v>
       </c>
       <c r="G87" s="6">
         <f t="shared" si="25"/>
-        <v>45854</v>
+        <v>46218</v>
       </c>
       <c r="H87" s="6">
         <f t="shared" si="26"/>
-        <v>45855</v>
+        <v>46219</v>
       </c>
       <c r="I87" s="6">
         <f t="shared" si="27"/>
-        <v>45856</v>
+        <v>46220</v>
       </c>
       <c r="J87" s="18">
         <f t="shared" si="28"/>
-        <v>45857</v>
+        <v>46221</v>
       </c>
       <c r="K87" s="18">
         <f t="shared" si="29"/>
-        <v>45858</v>
+        <v>46222</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6952,31 +6958,31 @@
       <c r="D88" s="2"/>
       <c r="E88" s="13">
         <f t="shared" si="23"/>
-        <v>45859</v>
+        <v>46223</v>
       </c>
       <c r="F88" s="6">
         <f t="shared" si="24"/>
-        <v>45860</v>
+        <v>46224</v>
       </c>
       <c r="G88" s="6">
         <f t="shared" si="25"/>
-        <v>45861</v>
+        <v>46225</v>
       </c>
       <c r="H88" s="6">
         <f t="shared" si="26"/>
-        <v>45862</v>
+        <v>46226</v>
       </c>
       <c r="I88" s="6">
         <f t="shared" si="27"/>
-        <v>45863</v>
+        <v>46227</v>
       </c>
       <c r="J88" s="18">
         <f t="shared" si="28"/>
-        <v>45864</v>
+        <v>46228</v>
       </c>
       <c r="K88" s="18">
         <f t="shared" si="29"/>
-        <v>45865</v>
+        <v>46229</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6986,36 +6992,36 @@
       </c>
       <c r="C89" s="7">
         <f t="array" ref="C89">IF(SUM(1*(DAY(E89:K89)=1))&gt;0,K89,"")</f>
-        <v>45872</v>
+        <v>46236</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="13">
         <f t="shared" si="23"/>
-        <v>45866</v>
+        <v>46230</v>
       </c>
       <c r="F89" s="6">
         <f t="shared" si="24"/>
-        <v>45867</v>
+        <v>46231</v>
       </c>
       <c r="G89" s="6">
         <f t="shared" si="25"/>
-        <v>45868</v>
+        <v>46232</v>
       </c>
       <c r="H89" s="6">
         <f t="shared" si="26"/>
-        <v>45869</v>
+        <v>46233</v>
       </c>
       <c r="I89" s="6">
         <f t="shared" si="27"/>
-        <v>45870</v>
+        <v>46234</v>
       </c>
       <c r="J89" s="18">
         <f t="shared" si="28"/>
-        <v>45871</v>
+        <v>46235</v>
       </c>
       <c r="K89" s="18">
         <f t="shared" si="29"/>
-        <v>45872</v>
+        <v>46236</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8931,7 +8937,7 @@
   </conditionalFormatting>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="46" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
+  <pageSetup scale="51" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -8966,7 +8972,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="55">
         <f>Instructions!B4</f>
-        <v>45292</v>
+        <v>45658</v>
       </c>
       <c r="F1" s="55"/>
       <c r="G1" s="55"/>
@@ -8980,7 +8986,7 @@
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="str">
         <f>CONCATENATE(" Calendario compatto ",YEAR(E1))</f>
-        <v xml:space="preserve"> Calendario compatto 2024</v>
+        <v xml:space="preserve"> Calendario compatto 2025</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -9062,31 +9068,31 @@
       <c r="D6" s="2"/>
       <c r="E6" s="13">
         <f t="shared" ref="E6:J6" si="0">F6-1</f>
-        <v>45285</v>
+        <v>45649</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="0"/>
-        <v>45286</v>
+        <v>45650</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="0"/>
-        <v>45287</v>
+        <v>45651</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="0"/>
-        <v>45288</v>
+        <v>45652</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="0"/>
-        <v>45289</v>
+        <v>45653</v>
       </c>
       <c r="J6" s="18">
         <f t="shared" si="0"/>
-        <v>45290</v>
+        <v>45654</v>
       </c>
       <c r="K6" s="18">
         <f>$E$1-WEEKDAY($E$1)+1</f>
-        <v>45291</v>
+        <v>45655</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9096,35 +9102,35 @@
       </c>
       <c r="C7" s="7">
         <f t="array" ref="C7">IF(SUM(1*(DAY(E7:K7)=1))&gt;0,K7,"")</f>
-        <v>45298</v>
+        <v>45662</v>
       </c>
       <c r="E7" s="13">
         <f t="shared" ref="E7:E59" si="1">K6+1</f>
-        <v>45292</v>
+        <v>45656</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" ref="F7:K22" si="2">E7+1</f>
-        <v>45293</v>
+        <v>45657</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="2"/>
-        <v>45294</v>
+        <v>45658</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" si="2"/>
-        <v>45295</v>
+        <v>45659</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="2"/>
-        <v>45296</v>
+        <v>45660</v>
       </c>
       <c r="J7" s="18">
         <f t="shared" si="2"/>
-        <v>45297</v>
+        <v>45661</v>
       </c>
       <c r="K7" s="18">
         <f t="shared" si="2"/>
-        <v>45298</v>
+        <v>45662</v>
       </c>
       <c r="M7"/>
     </row>
@@ -9139,31 +9145,31 @@
       </c>
       <c r="E8" s="13">
         <f t="shared" si="1"/>
-        <v>45299</v>
+        <v>45663</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="2"/>
-        <v>45300</v>
+        <v>45664</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="2"/>
-        <v>45301</v>
+        <v>45665</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="2"/>
-        <v>45302</v>
+        <v>45666</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="2"/>
-        <v>45303</v>
+        <v>45667</v>
       </c>
       <c r="J8" s="18">
         <f t="shared" si="2"/>
-        <v>45304</v>
+        <v>45668</v>
       </c>
       <c r="K8" s="18">
         <f t="shared" si="2"/>
-        <v>45305</v>
+        <v>45669</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9177,31 +9183,31 @@
       </c>
       <c r="E9" s="13">
         <f t="shared" si="1"/>
-        <v>45306</v>
+        <v>45670</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="2"/>
-        <v>45307</v>
+        <v>45671</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="2"/>
-        <v>45308</v>
+        <v>45672</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="2"/>
-        <v>45309</v>
+        <v>45673</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="2"/>
-        <v>45310</v>
+        <v>45674</v>
       </c>
       <c r="J9" s="18">
         <f t="shared" si="2"/>
-        <v>45311</v>
+        <v>45675</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" si="2"/>
-        <v>45312</v>
+        <v>45676</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9215,31 +9221,31 @@
       </c>
       <c r="E10" s="13">
         <f t="shared" si="1"/>
-        <v>45313</v>
+        <v>45677</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="2"/>
-        <v>45314</v>
+        <v>45678</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="2"/>
-        <v>45315</v>
+        <v>45679</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="2"/>
-        <v>45316</v>
+        <v>45680</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" si="2"/>
-        <v>45317</v>
+        <v>45681</v>
       </c>
       <c r="J10" s="18">
         <f t="shared" si="2"/>
-        <v>45318</v>
+        <v>45682</v>
       </c>
       <c r="K10" s="18">
         <f t="shared" si="2"/>
-        <v>45319</v>
+        <v>45683</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9249,35 +9255,35 @@
       </c>
       <c r="C11" s="7">
         <f t="array" ref="C11">IF(SUM(1*(DAY(E11:K11)=1))&gt;0,K11,"")</f>
-        <v>45326</v>
+        <v>45690</v>
       </c>
       <c r="E11" s="13">
         <f t="shared" si="1"/>
-        <v>45320</v>
+        <v>45684</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="2"/>
-        <v>45321</v>
+        <v>45685</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="2"/>
-        <v>45322</v>
+        <v>45686</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="2"/>
-        <v>45323</v>
+        <v>45687</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" si="2"/>
-        <v>45324</v>
+        <v>45688</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" si="2"/>
-        <v>45325</v>
+        <v>45689</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" si="2"/>
-        <v>45326</v>
+        <v>45690</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9291,31 +9297,31 @@
       </c>
       <c r="E12" s="13">
         <f t="shared" si="1"/>
-        <v>45327</v>
+        <v>45691</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="2"/>
-        <v>45328</v>
+        <v>45692</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="2"/>
-        <v>45329</v>
+        <v>45693</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" si="2"/>
-        <v>45330</v>
+        <v>45694</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" si="2"/>
-        <v>45331</v>
+        <v>45695</v>
       </c>
       <c r="J12" s="18">
         <f t="shared" si="2"/>
-        <v>45332</v>
+        <v>45696</v>
       </c>
       <c r="K12" s="18">
         <f t="shared" si="2"/>
-        <v>45333</v>
+        <v>45697</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9329,31 +9335,31 @@
       </c>
       <c r="E13" s="13">
         <f t="shared" si="1"/>
-        <v>45334</v>
+        <v>45698</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="2"/>
-        <v>45335</v>
+        <v>45699</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="2"/>
-        <v>45336</v>
+        <v>45700</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="2"/>
-        <v>45337</v>
+        <v>45701</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" si="2"/>
-        <v>45338</v>
+        <v>45702</v>
       </c>
       <c r="J13" s="18">
         <f t="shared" si="2"/>
-        <v>45339</v>
+        <v>45703</v>
       </c>
       <c r="K13" s="18">
         <f t="shared" si="2"/>
-        <v>45340</v>
+        <v>45704</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9367,31 +9373,31 @@
       </c>
       <c r="E14" s="13">
         <f t="shared" si="1"/>
-        <v>45341</v>
+        <v>45705</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="2"/>
-        <v>45342</v>
+        <v>45706</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="2"/>
-        <v>45343</v>
+        <v>45707</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="2"/>
-        <v>45344</v>
+        <v>45708</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" si="2"/>
-        <v>45345</v>
+        <v>45709</v>
       </c>
       <c r="J14" s="18">
         <f t="shared" si="2"/>
-        <v>45346</v>
+        <v>45710</v>
       </c>
       <c r="K14" s="18">
         <f t="shared" si="2"/>
-        <v>45347</v>
+        <v>45711</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9401,35 +9407,35 @@
       </c>
       <c r="C15" s="7">
         <f t="array" ref="C15">IF(SUM(1*(DAY(E15:K15)=1))&gt;0,K15,"")</f>
-        <v>45354</v>
+        <v>45718</v>
       </c>
       <c r="E15" s="13">
         <f t="shared" si="1"/>
-        <v>45348</v>
+        <v>45712</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="2"/>
-        <v>45349</v>
+        <v>45713</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="2"/>
-        <v>45350</v>
+        <v>45714</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" si="2"/>
-        <v>45351</v>
+        <v>45715</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" si="2"/>
-        <v>45352</v>
+        <v>45716</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" si="2"/>
-        <v>45353</v>
+        <v>45717</v>
       </c>
       <c r="K15" s="18">
         <f t="shared" si="2"/>
-        <v>45354</v>
+        <v>45718</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9443,31 +9449,31 @@
       </c>
       <c r="E16" s="13">
         <f t="shared" si="1"/>
-        <v>45355</v>
+        <v>45719</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="2"/>
-        <v>45356</v>
+        <v>45720</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="2"/>
-        <v>45357</v>
+        <v>45721</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" si="2"/>
-        <v>45358</v>
+        <v>45722</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" si="2"/>
-        <v>45359</v>
+        <v>45723</v>
       </c>
       <c r="J16" s="18">
         <f t="shared" si="2"/>
-        <v>45360</v>
+        <v>45724</v>
       </c>
       <c r="K16" s="18">
         <f t="shared" si="2"/>
-        <v>45361</v>
+        <v>45725</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9481,31 +9487,31 @@
       </c>
       <c r="E17" s="13">
         <f t="shared" si="1"/>
-        <v>45362</v>
+        <v>45726</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="2"/>
-        <v>45363</v>
+        <v>45727</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="2"/>
-        <v>45364</v>
+        <v>45728</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" si="2"/>
-        <v>45365</v>
+        <v>45729</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" si="2"/>
-        <v>45366</v>
+        <v>45730</v>
       </c>
       <c r="J17" s="18">
         <f t="shared" si="2"/>
-        <v>45367</v>
+        <v>45731</v>
       </c>
       <c r="K17" s="18">
         <f t="shared" si="2"/>
-        <v>45368</v>
+        <v>45732</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9519,31 +9525,31 @@
       </c>
       <c r="E18" s="13">
         <f t="shared" si="1"/>
-        <v>45369</v>
+        <v>45733</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="2"/>
-        <v>45370</v>
+        <v>45734</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="2"/>
-        <v>45371</v>
+        <v>45735</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" si="2"/>
-        <v>45372</v>
+        <v>45736</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" si="2"/>
-        <v>45373</v>
+        <v>45737</v>
       </c>
       <c r="J18" s="18">
         <f t="shared" si="2"/>
-        <v>45374</v>
+        <v>45738</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" si="2"/>
-        <v>45375</v>
+        <v>45739</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9557,31 +9563,31 @@
       </c>
       <c r="E19" s="13">
         <f t="shared" si="1"/>
-        <v>45376</v>
+        <v>45740</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="2"/>
-        <v>45377</v>
+        <v>45741</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" si="2"/>
-        <v>45378</v>
+        <v>45742</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" si="2"/>
-        <v>45379</v>
+        <v>45743</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" si="2"/>
-        <v>45380</v>
+        <v>45744</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" si="2"/>
-        <v>45381</v>
+        <v>45745</v>
       </c>
       <c r="K19" s="18">
         <f t="shared" si="2"/>
-        <v>45382</v>
+        <v>45746</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9591,35 +9597,35 @@
       </c>
       <c r="C20" s="7">
         <f t="array" ref="C20">IF(SUM(1*(DAY(E20:K20)=1))&gt;0,K20,"")</f>
-        <v>45389</v>
+        <v>45753</v>
       </c>
       <c r="E20" s="13">
         <f t="shared" si="1"/>
-        <v>45383</v>
+        <v>45747</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="2"/>
-        <v>45384</v>
+        <v>45748</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="2"/>
-        <v>45385</v>
+        <v>45749</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" si="2"/>
-        <v>45386</v>
+        <v>45750</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" si="2"/>
-        <v>45387</v>
+        <v>45751</v>
       </c>
       <c r="J20" s="18">
         <f t="shared" si="2"/>
-        <v>45388</v>
+        <v>45752</v>
       </c>
       <c r="K20" s="18">
         <f t="shared" si="2"/>
-        <v>45389</v>
+        <v>45753</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9634,31 +9640,31 @@
       <c r="D21" s="2"/>
       <c r="E21" s="13">
         <f t="shared" si="1"/>
-        <v>45390</v>
+        <v>45754</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="2"/>
-        <v>45391</v>
+        <v>45755</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="2"/>
-        <v>45392</v>
+        <v>45756</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" si="2"/>
-        <v>45393</v>
+        <v>45757</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" si="2"/>
-        <v>45394</v>
+        <v>45758</v>
       </c>
       <c r="J21" s="18">
         <f t="shared" si="2"/>
-        <v>45395</v>
+        <v>45759</v>
       </c>
       <c r="K21" s="18">
         <f t="shared" si="2"/>
-        <v>45396</v>
+        <v>45760</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9673,31 +9679,31 @@
       <c r="D22" s="2"/>
       <c r="E22" s="13">
         <f t="shared" si="1"/>
-        <v>45397</v>
+        <v>45761</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="2"/>
-        <v>45398</v>
+        <v>45762</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="2"/>
-        <v>45399</v>
+        <v>45763</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" si="2"/>
-        <v>45400</v>
+        <v>45764</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" si="2"/>
-        <v>45401</v>
+        <v>45765</v>
       </c>
       <c r="J22" s="18">
         <f t="shared" si="2"/>
-        <v>45402</v>
+        <v>45766</v>
       </c>
       <c r="K22" s="18">
         <f t="shared" si="2"/>
-        <v>45403</v>
+        <v>45767</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9712,31 +9718,31 @@
       <c r="D23" s="2"/>
       <c r="E23" s="13">
         <f t="shared" si="1"/>
-        <v>45404</v>
+        <v>45768</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" ref="F23:K54" si="4">E23+1</f>
-        <v>45405</v>
+        <v>45769</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="4"/>
-        <v>45406</v>
+        <v>45770</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" si="4"/>
-        <v>45407</v>
+        <v>45771</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" si="4"/>
-        <v>45408</v>
+        <v>45772</v>
       </c>
       <c r="J23" s="18">
         <f t="shared" si="4"/>
-        <v>45409</v>
+        <v>45773</v>
       </c>
       <c r="K23" s="18">
         <f t="shared" si="4"/>
-        <v>45410</v>
+        <v>45774</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9746,36 +9752,36 @@
       </c>
       <c r="C24" s="7">
         <f t="array" ref="C24">IF(SUM(1*(DAY(E24:K24)=1))&gt;0,K24,"")</f>
-        <v>45417</v>
+        <v>45781</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="13">
         <f t="shared" si="1"/>
-        <v>45411</v>
+        <v>45775</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="4"/>
-        <v>45412</v>
+        <v>45776</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="4"/>
-        <v>45413</v>
+        <v>45777</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" si="4"/>
-        <v>45414</v>
+        <v>45778</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" si="4"/>
-        <v>45415</v>
+        <v>45779</v>
       </c>
       <c r="J24" s="18">
         <f t="shared" si="4"/>
-        <v>45416</v>
+        <v>45780</v>
       </c>
       <c r="K24" s="18">
         <f t="shared" si="4"/>
-        <v>45417</v>
+        <v>45781</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9790,31 +9796,31 @@
       <c r="D25" s="2"/>
       <c r="E25" s="13">
         <f t="shared" si="1"/>
-        <v>45418</v>
+        <v>45782</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="4"/>
-        <v>45419</v>
+        <v>45783</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="4"/>
-        <v>45420</v>
+        <v>45784</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="4"/>
-        <v>45421</v>
+        <v>45785</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="4"/>
-        <v>45422</v>
+        <v>45786</v>
       </c>
       <c r="J25" s="18">
         <f t="shared" si="4"/>
-        <v>45423</v>
+        <v>45787</v>
       </c>
       <c r="K25" s="18">
         <f t="shared" si="4"/>
-        <v>45424</v>
+        <v>45788</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9829,31 +9835,31 @@
       <c r="D26" s="2"/>
       <c r="E26" s="13">
         <f t="shared" si="1"/>
-        <v>45425</v>
+        <v>45789</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="4"/>
-        <v>45426</v>
+        <v>45790</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="4"/>
-        <v>45427</v>
+        <v>45791</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" si="4"/>
-        <v>45428</v>
+        <v>45792</v>
       </c>
       <c r="I26" s="6">
         <f t="shared" si="4"/>
-        <v>45429</v>
+        <v>45793</v>
       </c>
       <c r="J26" s="18">
         <f t="shared" si="4"/>
-        <v>45430</v>
+        <v>45794</v>
       </c>
       <c r="K26" s="18">
         <f t="shared" si="4"/>
-        <v>45431</v>
+        <v>45795</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9868,31 +9874,31 @@
       <c r="D27" s="2"/>
       <c r="E27" s="13">
         <f t="shared" si="1"/>
-        <v>45432</v>
+        <v>45796</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="4"/>
-        <v>45433</v>
+        <v>45797</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="4"/>
-        <v>45434</v>
+        <v>45798</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" si="4"/>
-        <v>45435</v>
+        <v>45799</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" si="4"/>
-        <v>45436</v>
+        <v>45800</v>
       </c>
       <c r="J27" s="18">
         <f t="shared" si="4"/>
-        <v>45437</v>
+        <v>45801</v>
       </c>
       <c r="K27" s="18">
         <f t="shared" si="4"/>
-        <v>45438</v>
+        <v>45802</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9902,36 +9908,36 @@
       </c>
       <c r="C28" s="7">
         <f t="array" ref="C28">IF(SUM(1*(DAY(E28:K28)=1))&gt;0,K28,"")</f>
-        <v>45445</v>
+        <v>45809</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="13">
         <f t="shared" si="1"/>
-        <v>45439</v>
+        <v>45803</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="4"/>
-        <v>45440</v>
+        <v>45804</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="4"/>
-        <v>45441</v>
+        <v>45805</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" si="4"/>
-        <v>45442</v>
+        <v>45806</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" si="4"/>
-        <v>45443</v>
+        <v>45807</v>
       </c>
       <c r="J28" s="18">
         <f t="shared" si="4"/>
-        <v>45444</v>
+        <v>45808</v>
       </c>
       <c r="K28" s="18">
         <f t="shared" si="4"/>
-        <v>45445</v>
+        <v>45809</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9946,31 +9952,31 @@
       <c r="D29" s="2"/>
       <c r="E29" s="13">
         <f t="shared" si="1"/>
-        <v>45446</v>
+        <v>45810</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="4"/>
-        <v>45447</v>
+        <v>45811</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="4"/>
-        <v>45448</v>
+        <v>45812</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" si="4"/>
-        <v>45449</v>
+        <v>45813</v>
       </c>
       <c r="I29" s="6">
         <f t="shared" si="4"/>
-        <v>45450</v>
+        <v>45814</v>
       </c>
       <c r="J29" s="18">
         <f t="shared" si="4"/>
-        <v>45451</v>
+        <v>45815</v>
       </c>
       <c r="K29" s="18">
         <f t="shared" si="4"/>
-        <v>45452</v>
+        <v>45816</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9985,31 +9991,31 @@
       <c r="D30" s="2"/>
       <c r="E30" s="13">
         <f t="shared" si="1"/>
-        <v>45453</v>
+        <v>45817</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" si="4"/>
-        <v>45454</v>
+        <v>45818</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" si="4"/>
-        <v>45455</v>
+        <v>45819</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" si="4"/>
-        <v>45456</v>
+        <v>45820</v>
       </c>
       <c r="I30" s="6">
         <f t="shared" si="4"/>
-        <v>45457</v>
+        <v>45821</v>
       </c>
       <c r="J30" s="18">
         <f t="shared" si="4"/>
-        <v>45458</v>
+        <v>45822</v>
       </c>
       <c r="K30" s="18">
         <f t="shared" si="4"/>
-        <v>45459</v>
+        <v>45823</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10024,31 +10030,31 @@
       <c r="D31" s="2"/>
       <c r="E31" s="13">
         <f t="shared" si="1"/>
-        <v>45460</v>
+        <v>45824</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="4"/>
-        <v>45461</v>
+        <v>45825</v>
       </c>
       <c r="G31" s="6">
         <f t="shared" si="4"/>
-        <v>45462</v>
+        <v>45826</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" si="4"/>
-        <v>45463</v>
+        <v>45827</v>
       </c>
       <c r="I31" s="6">
         <f t="shared" si="4"/>
-        <v>45464</v>
+        <v>45828</v>
       </c>
       <c r="J31" s="18">
         <f t="shared" si="4"/>
-        <v>45465</v>
+        <v>45829</v>
       </c>
       <c r="K31" s="18">
         <f t="shared" si="4"/>
-        <v>45466</v>
+        <v>45830</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10063,31 +10069,31 @@
       <c r="D32" s="2"/>
       <c r="E32" s="13">
         <f t="shared" si="1"/>
-        <v>45467</v>
+        <v>45831</v>
       </c>
       <c r="F32" s="6">
         <f t="shared" si="4"/>
-        <v>45468</v>
+        <v>45832</v>
       </c>
       <c r="G32" s="6">
         <f t="shared" si="4"/>
-        <v>45469</v>
+        <v>45833</v>
       </c>
       <c r="H32" s="6">
         <f t="shared" si="4"/>
-        <v>45470</v>
+        <v>45834</v>
       </c>
       <c r="I32" s="6">
         <f t="shared" si="4"/>
-        <v>45471</v>
+        <v>45835</v>
       </c>
       <c r="J32" s="18">
         <f t="shared" si="4"/>
-        <v>45472</v>
+        <v>45836</v>
       </c>
       <c r="K32" s="18">
         <f t="shared" si="4"/>
-        <v>45473</v>
+        <v>45837</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10097,36 +10103,36 @@
       </c>
       <c r="C33" s="7">
         <f t="array" ref="C33">IF(SUM(1*(DAY(E33:K33)=1))&gt;0,K33,"")</f>
-        <v>45480</v>
+        <v>45844</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="13">
         <f t="shared" si="1"/>
-        <v>45474</v>
+        <v>45838</v>
       </c>
       <c r="F33" s="6">
         <f t="shared" si="4"/>
-        <v>45475</v>
+        <v>45839</v>
       </c>
       <c r="G33" s="6">
         <f t="shared" si="4"/>
-        <v>45476</v>
+        <v>45840</v>
       </c>
       <c r="H33" s="6">
         <f t="shared" si="4"/>
-        <v>45477</v>
+        <v>45841</v>
       </c>
       <c r="I33" s="6">
         <f t="shared" si="4"/>
-        <v>45478</v>
+        <v>45842</v>
       </c>
       <c r="J33" s="18">
         <f t="shared" si="4"/>
-        <v>45479</v>
+        <v>45843</v>
       </c>
       <c r="K33" s="18">
         <f t="shared" si="4"/>
-        <v>45480</v>
+        <v>45844</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10141,31 +10147,31 @@
       <c r="D34" s="2"/>
       <c r="E34" s="13">
         <f t="shared" si="1"/>
-        <v>45481</v>
+        <v>45845</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" si="4"/>
-        <v>45482</v>
+        <v>45846</v>
       </c>
       <c r="G34" s="6">
         <f t="shared" si="4"/>
-        <v>45483</v>
+        <v>45847</v>
       </c>
       <c r="H34" s="6">
         <f t="shared" si="4"/>
-        <v>45484</v>
+        <v>45848</v>
       </c>
       <c r="I34" s="6">
         <f t="shared" si="4"/>
-        <v>45485</v>
+        <v>45849</v>
       </c>
       <c r="J34" s="18">
         <f t="shared" si="4"/>
-        <v>45486</v>
+        <v>45850</v>
       </c>
       <c r="K34" s="18">
         <f t="shared" si="4"/>
-        <v>45487</v>
+        <v>45851</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10180,31 +10186,31 @@
       <c r="D35" s="2"/>
       <c r="E35" s="13">
         <f t="shared" si="1"/>
-        <v>45488</v>
+        <v>45852</v>
       </c>
       <c r="F35" s="6">
         <f t="shared" si="4"/>
-        <v>45489</v>
+        <v>45853</v>
       </c>
       <c r="G35" s="6">
         <f t="shared" si="4"/>
-        <v>45490</v>
+        <v>45854</v>
       </c>
       <c r="H35" s="6">
         <f t="shared" si="4"/>
-        <v>45491</v>
+        <v>45855</v>
       </c>
       <c r="I35" s="6">
         <f t="shared" si="4"/>
-        <v>45492</v>
+        <v>45856</v>
       </c>
       <c r="J35" s="18">
         <f t="shared" si="4"/>
-        <v>45493</v>
+        <v>45857</v>
       </c>
       <c r="K35" s="18">
         <f t="shared" si="4"/>
-        <v>45494</v>
+        <v>45858</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10219,31 +10225,31 @@
       <c r="D36" s="2"/>
       <c r="E36" s="13">
         <f t="shared" si="1"/>
-        <v>45495</v>
+        <v>45859</v>
       </c>
       <c r="F36" s="6">
         <f t="shared" si="4"/>
-        <v>45496</v>
+        <v>45860</v>
       </c>
       <c r="G36" s="6">
         <f t="shared" si="4"/>
-        <v>45497</v>
+        <v>45861</v>
       </c>
       <c r="H36" s="6">
         <f t="shared" si="4"/>
-        <v>45498</v>
+        <v>45862</v>
       </c>
       <c r="I36" s="6">
         <f t="shared" si="4"/>
-        <v>45499</v>
+        <v>45863</v>
       </c>
       <c r="J36" s="18">
         <f t="shared" si="4"/>
-        <v>45500</v>
+        <v>45864</v>
       </c>
       <c r="K36" s="18">
         <f t="shared" si="4"/>
-        <v>45501</v>
+        <v>45865</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10253,36 +10259,36 @@
       </c>
       <c r="C37" s="7">
         <f t="array" ref="C37">IF(SUM(1*(DAY(E37:K37)=1))&gt;0,K37,"")</f>
-        <v>45508</v>
+        <v>45872</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="13">
         <f t="shared" si="1"/>
-        <v>45502</v>
+        <v>45866</v>
       </c>
       <c r="F37" s="6">
         <f t="shared" si="4"/>
-        <v>45503</v>
+        <v>45867</v>
       </c>
       <c r="G37" s="6">
         <f t="shared" si="4"/>
-        <v>45504</v>
+        <v>45868</v>
       </c>
       <c r="H37" s="6">
         <f t="shared" si="4"/>
-        <v>45505</v>
+        <v>45869</v>
       </c>
       <c r="I37" s="6">
         <f t="shared" si="4"/>
-        <v>45506</v>
+        <v>45870</v>
       </c>
       <c r="J37" s="18">
         <f t="shared" si="4"/>
-        <v>45507</v>
+        <v>45871</v>
       </c>
       <c r="K37" s="18">
         <f t="shared" si="4"/>
-        <v>45508</v>
+        <v>45872</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10297,31 +10303,31 @@
       <c r="D38" s="2"/>
       <c r="E38" s="13">
         <f t="shared" si="1"/>
-        <v>45509</v>
+        <v>45873</v>
       </c>
       <c r="F38" s="6">
         <f t="shared" si="4"/>
-        <v>45510</v>
+        <v>45874</v>
       </c>
       <c r="G38" s="6">
         <f t="shared" si="4"/>
-        <v>45511</v>
+        <v>45875</v>
       </c>
       <c r="H38" s="6">
         <f t="shared" si="4"/>
-        <v>45512</v>
+        <v>45876</v>
       </c>
       <c r="I38" s="6">
         <f t="shared" si="4"/>
-        <v>45513</v>
+        <v>45877</v>
       </c>
       <c r="J38" s="18">
         <f t="shared" si="4"/>
-        <v>45514</v>
+        <v>45878</v>
       </c>
       <c r="K38" s="18">
         <f t="shared" si="4"/>
-        <v>45515</v>
+        <v>45879</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10336,31 +10342,31 @@
       <c r="D39" s="2"/>
       <c r="E39" s="13">
         <f t="shared" si="1"/>
-        <v>45516</v>
+        <v>45880</v>
       </c>
       <c r="F39" s="6">
         <f t="shared" si="4"/>
-        <v>45517</v>
+        <v>45881</v>
       </c>
       <c r="G39" s="6">
         <f t="shared" si="4"/>
-        <v>45518</v>
+        <v>45882</v>
       </c>
       <c r="H39" s="6">
         <f t="shared" si="4"/>
-        <v>45519</v>
+        <v>45883</v>
       </c>
       <c r="I39" s="6">
         <f t="shared" si="4"/>
-        <v>45520</v>
+        <v>45884</v>
       </c>
       <c r="J39" s="18">
         <f t="shared" si="4"/>
-        <v>45521</v>
+        <v>45885</v>
       </c>
       <c r="K39" s="18">
         <f t="shared" si="4"/>
-        <v>45522</v>
+        <v>45886</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10375,31 +10381,31 @@
       <c r="D40" s="2"/>
       <c r="E40" s="13">
         <f t="shared" si="1"/>
-        <v>45523</v>
+        <v>45887</v>
       </c>
       <c r="F40" s="6">
         <f t="shared" si="4"/>
-        <v>45524</v>
+        <v>45888</v>
       </c>
       <c r="G40" s="6">
         <f t="shared" si="4"/>
-        <v>45525</v>
+        <v>45889</v>
       </c>
       <c r="H40" s="6">
         <f t="shared" si="4"/>
-        <v>45526</v>
+        <v>45890</v>
       </c>
       <c r="I40" s="6">
         <f t="shared" si="4"/>
-        <v>45527</v>
+        <v>45891</v>
       </c>
       <c r="J40" s="18">
         <f t="shared" si="4"/>
-        <v>45528</v>
+        <v>45892</v>
       </c>
       <c r="K40" s="18">
         <f t="shared" si="4"/>
-        <v>45529</v>
+        <v>45893</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10407,38 +10413,38 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="7" t="str">
         <f t="array" ref="C41">IF(SUM(1*(DAY(E41:K41)=1))&gt;0,K41,"")</f>
-        <v>45536</v>
+        <v/>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="13">
         <f t="shared" si="1"/>
-        <v>45530</v>
+        <v>45894</v>
       </c>
       <c r="F41" s="6">
         <f t="shared" si="4"/>
-        <v>45531</v>
+        <v>45895</v>
       </c>
       <c r="G41" s="6">
         <f t="shared" si="4"/>
-        <v>45532</v>
+        <v>45896</v>
       </c>
       <c r="H41" s="6">
         <f t="shared" si="4"/>
-        <v>45533</v>
+        <v>45897</v>
       </c>
       <c r="I41" s="6">
         <f t="shared" si="4"/>
-        <v>45534</v>
+        <v>45898</v>
       </c>
       <c r="J41" s="18">
         <f t="shared" si="4"/>
-        <v>45535</v>
+        <v>45899</v>
       </c>
       <c r="K41" s="18">
         <f t="shared" si="4"/>
-        <v>45536</v>
+        <v>45900</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10446,38 +10452,38 @@
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="C42" s="7" t="str">
+      <c r="C42" s="7">
         <f t="array" ref="C42">IF(SUM(1*(DAY(E42:K42)=1))&gt;0,K42,"")</f>
-        <v/>
+        <v>45907</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="13">
         <f t="shared" si="1"/>
-        <v>45537</v>
+        <v>45901</v>
       </c>
       <c r="F42" s="6">
         <f t="shared" si="4"/>
-        <v>45538</v>
+        <v>45902</v>
       </c>
       <c r="G42" s="6">
         <f t="shared" si="4"/>
-        <v>45539</v>
+        <v>45903</v>
       </c>
       <c r="H42" s="6">
         <f t="shared" si="4"/>
-        <v>45540</v>
+        <v>45904</v>
       </c>
       <c r="I42" s="6">
         <f t="shared" si="4"/>
-        <v>45541</v>
+        <v>45905</v>
       </c>
       <c r="J42" s="18">
         <f t="shared" si="4"/>
-        <v>45542</v>
+        <v>45906</v>
       </c>
       <c r="K42" s="18">
         <f t="shared" si="4"/>
-        <v>45543</v>
+        <v>45907</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10492,31 +10498,31 @@
       <c r="D43" s="2"/>
       <c r="E43" s="13">
         <f t="shared" si="1"/>
-        <v>45544</v>
+        <v>45908</v>
       </c>
       <c r="F43" s="6">
         <f t="shared" si="4"/>
-        <v>45545</v>
+        <v>45909</v>
       </c>
       <c r="G43" s="6">
         <f t="shared" si="4"/>
-        <v>45546</v>
+        <v>45910</v>
       </c>
       <c r="H43" s="6">
         <f t="shared" si="4"/>
-        <v>45547</v>
+        <v>45911</v>
       </c>
       <c r="I43" s="6">
         <f t="shared" si="4"/>
-        <v>45548</v>
+        <v>45912</v>
       </c>
       <c r="J43" s="18">
         <f t="shared" si="4"/>
-        <v>45549</v>
+        <v>45913</v>
       </c>
       <c r="K43" s="18">
         <f t="shared" si="4"/>
-        <v>45550</v>
+        <v>45914</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10531,31 +10537,31 @@
       <c r="D44" s="2"/>
       <c r="E44" s="13">
         <f t="shared" si="1"/>
-        <v>45551</v>
+        <v>45915</v>
       </c>
       <c r="F44" s="6">
         <f t="shared" si="4"/>
-        <v>45552</v>
+        <v>45916</v>
       </c>
       <c r="G44" s="6">
         <f t="shared" si="4"/>
-        <v>45553</v>
+        <v>45917</v>
       </c>
       <c r="H44" s="6">
         <f t="shared" si="4"/>
-        <v>45554</v>
+        <v>45918</v>
       </c>
       <c r="I44" s="6">
         <f t="shared" si="4"/>
-        <v>45555</v>
+        <v>45919</v>
       </c>
       <c r="J44" s="18">
         <f t="shared" si="4"/>
-        <v>45556</v>
+        <v>45920</v>
       </c>
       <c r="K44" s="18">
         <f t="shared" si="4"/>
-        <v>45557</v>
+        <v>45921</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10570,31 +10576,31 @@
       <c r="D45" s="2"/>
       <c r="E45" s="13">
         <f t="shared" si="1"/>
-        <v>45558</v>
+        <v>45922</v>
       </c>
       <c r="F45" s="6">
         <f t="shared" si="4"/>
-        <v>45559</v>
+        <v>45923</v>
       </c>
       <c r="G45" s="6">
         <f t="shared" si="4"/>
-        <v>45560</v>
+        <v>45924</v>
       </c>
       <c r="H45" s="6">
         <f t="shared" si="4"/>
-        <v>45561</v>
+        <v>45925</v>
       </c>
       <c r="I45" s="6">
         <f t="shared" si="4"/>
-        <v>45562</v>
+        <v>45926</v>
       </c>
       <c r="J45" s="18">
         <f t="shared" si="4"/>
-        <v>45563</v>
+        <v>45927</v>
       </c>
       <c r="K45" s="18">
         <f t="shared" si="4"/>
-        <v>45564</v>
+        <v>45928</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10604,36 +10610,36 @@
       </c>
       <c r="C46" s="7">
         <f t="array" ref="C46">IF(SUM(1*(DAY(E46:K46)=1))&gt;0,K46,"")</f>
-        <v>45571</v>
+        <v>45935</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="13">
         <f t="shared" si="1"/>
-        <v>45565</v>
+        <v>45929</v>
       </c>
       <c r="F46" s="6">
         <f t="shared" si="4"/>
-        <v>45566</v>
+        <v>45930</v>
       </c>
       <c r="G46" s="6">
         <f t="shared" si="4"/>
-        <v>45567</v>
+        <v>45931</v>
       </c>
       <c r="H46" s="6">
         <f t="shared" si="4"/>
-        <v>45568</v>
+        <v>45932</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="4"/>
-        <v>45569</v>
+        <v>45933</v>
       </c>
       <c r="J46" s="18">
         <f t="shared" si="4"/>
-        <v>45570</v>
+        <v>45934</v>
       </c>
       <c r="K46" s="18">
         <f t="shared" si="4"/>
-        <v>45571</v>
+        <v>45935</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10648,31 +10654,31 @@
       <c r="D47" s="2"/>
       <c r="E47" s="13">
         <f t="shared" si="1"/>
-        <v>45572</v>
+        <v>45936</v>
       </c>
       <c r="F47" s="6">
         <f t="shared" si="4"/>
-        <v>45573</v>
+        <v>45937</v>
       </c>
       <c r="G47" s="6">
         <f t="shared" si="4"/>
-        <v>45574</v>
+        <v>45938</v>
       </c>
       <c r="H47" s="6">
         <f t="shared" si="4"/>
-        <v>45575</v>
+        <v>45939</v>
       </c>
       <c r="I47" s="6">
         <f t="shared" si="4"/>
-        <v>45576</v>
+        <v>45940</v>
       </c>
       <c r="J47" s="18">
         <f t="shared" si="4"/>
-        <v>45577</v>
+        <v>45941</v>
       </c>
       <c r="K47" s="18">
         <f t="shared" si="4"/>
-        <v>45578</v>
+        <v>45942</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10687,31 +10693,31 @@
       <c r="D48" s="2"/>
       <c r="E48" s="13">
         <f t="shared" si="1"/>
-        <v>45579</v>
+        <v>45943</v>
       </c>
       <c r="F48" s="6">
         <f t="shared" si="4"/>
-        <v>45580</v>
+        <v>45944</v>
       </c>
       <c r="G48" s="6">
         <f t="shared" si="4"/>
-        <v>45581</v>
+        <v>45945</v>
       </c>
       <c r="H48" s="6">
         <f t="shared" si="4"/>
-        <v>45582</v>
+        <v>45946</v>
       </c>
       <c r="I48" s="6">
         <f t="shared" si="4"/>
-        <v>45583</v>
+        <v>45947</v>
       </c>
       <c r="J48" s="18">
         <f t="shared" si="4"/>
-        <v>45584</v>
+        <v>45948</v>
       </c>
       <c r="K48" s="18">
         <f t="shared" si="4"/>
-        <v>45585</v>
+        <v>45949</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10726,31 +10732,31 @@
       <c r="D49" s="2"/>
       <c r="E49" s="13">
         <f t="shared" si="1"/>
-        <v>45586</v>
+        <v>45950</v>
       </c>
       <c r="F49" s="6">
         <f t="shared" si="4"/>
-        <v>45587</v>
+        <v>45951</v>
       </c>
       <c r="G49" s="6">
         <f t="shared" si="4"/>
-        <v>45588</v>
+        <v>45952</v>
       </c>
       <c r="H49" s="6">
         <f t="shared" si="4"/>
-        <v>45589</v>
+        <v>45953</v>
       </c>
       <c r="I49" s="6">
         <f t="shared" si="4"/>
-        <v>45590</v>
+        <v>45954</v>
       </c>
       <c r="J49" s="18">
         <f t="shared" si="4"/>
-        <v>45591</v>
+        <v>45955</v>
       </c>
       <c r="K49" s="18">
         <f t="shared" si="4"/>
-        <v>45592</v>
+        <v>45956</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10760,36 +10766,36 @@
       </c>
       <c r="C50" s="7">
         <f t="array" ref="C50">IF(SUM(1*(DAY(E50:K50)=1))&gt;0,K50,"")</f>
-        <v>45599</v>
+        <v>45963</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="13">
         <f t="shared" si="1"/>
-        <v>45593</v>
+        <v>45957</v>
       </c>
       <c r="F50" s="6">
         <f t="shared" si="4"/>
-        <v>45594</v>
+        <v>45958</v>
       </c>
       <c r="G50" s="6">
         <f t="shared" si="4"/>
-        <v>45595</v>
+        <v>45959</v>
       </c>
       <c r="H50" s="6">
         <f t="shared" si="4"/>
-        <v>45596</v>
+        <v>45960</v>
       </c>
       <c r="I50" s="6">
         <f t="shared" si="4"/>
-        <v>45597</v>
+        <v>45961</v>
       </c>
       <c r="J50" s="18">
         <f t="shared" si="4"/>
-        <v>45598</v>
+        <v>45962</v>
       </c>
       <c r="K50" s="18">
         <f t="shared" si="4"/>
-        <v>45599</v>
+        <v>45963</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10804,31 +10810,31 @@
       <c r="D51" s="2"/>
       <c r="E51" s="13">
         <f t="shared" si="1"/>
-        <v>45600</v>
+        <v>45964</v>
       </c>
       <c r="F51" s="6">
         <f t="shared" si="4"/>
-        <v>45601</v>
+        <v>45965</v>
       </c>
       <c r="G51" s="6">
         <f t="shared" si="4"/>
-        <v>45602</v>
+        <v>45966</v>
       </c>
       <c r="H51" s="6">
         <f t="shared" si="4"/>
-        <v>45603</v>
+        <v>45967</v>
       </c>
       <c r="I51" s="6">
         <f t="shared" si="4"/>
-        <v>45604</v>
+        <v>45968</v>
       </c>
       <c r="J51" s="18">
         <f t="shared" si="4"/>
-        <v>45605</v>
+        <v>45969</v>
       </c>
       <c r="K51" s="18">
         <f t="shared" si="4"/>
-        <v>45606</v>
+        <v>45970</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10843,31 +10849,31 @@
       <c r="D52" s="2"/>
       <c r="E52" s="13">
         <f t="shared" si="1"/>
-        <v>45607</v>
+        <v>45971</v>
       </c>
       <c r="F52" s="6">
         <f t="shared" si="4"/>
-        <v>45608</v>
+        <v>45972</v>
       </c>
       <c r="G52" s="6">
         <f t="shared" si="4"/>
-        <v>45609</v>
+        <v>45973</v>
       </c>
       <c r="H52" s="6">
         <f t="shared" si="4"/>
-        <v>45610</v>
+        <v>45974</v>
       </c>
       <c r="I52" s="6">
         <f t="shared" si="4"/>
-        <v>45611</v>
+        <v>45975</v>
       </c>
       <c r="J52" s="18">
         <f t="shared" si="4"/>
-        <v>45612</v>
+        <v>45976</v>
       </c>
       <c r="K52" s="18">
         <f t="shared" si="4"/>
-        <v>45613</v>
+        <v>45977</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10882,31 +10888,31 @@
       <c r="D53" s="2"/>
       <c r="E53" s="13">
         <f t="shared" si="1"/>
-        <v>45614</v>
+        <v>45978</v>
       </c>
       <c r="F53" s="6">
         <f t="shared" si="4"/>
-        <v>45615</v>
+        <v>45979</v>
       </c>
       <c r="G53" s="6">
         <f t="shared" si="4"/>
-        <v>45616</v>
+        <v>45980</v>
       </c>
       <c r="H53" s="6">
         <f t="shared" si="4"/>
-        <v>45617</v>
+        <v>45981</v>
       </c>
       <c r="I53" s="6">
         <f>H53+1</f>
-        <v>45618</v>
+        <v>45982</v>
       </c>
       <c r="J53" s="18">
         <f t="shared" si="4"/>
-        <v>45619</v>
+        <v>45983</v>
       </c>
       <c r="K53" s="18">
         <f t="shared" si="4"/>
-        <v>45620</v>
+        <v>45984</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10914,38 +10920,38 @@
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="7" t="str">
         <f t="array" ref="C54">IF(SUM(1*(DAY(E54:K54)=1))&gt;0,K54,"")</f>
-        <v>45627</v>
+        <v/>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="13">
         <f t="shared" si="1"/>
-        <v>45621</v>
+        <v>45985</v>
       </c>
       <c r="F54" s="6">
         <f t="shared" si="4"/>
-        <v>45622</v>
+        <v>45986</v>
       </c>
       <c r="G54" s="6">
         <f t="shared" si="4"/>
-        <v>45623</v>
+        <v>45987</v>
       </c>
       <c r="H54" s="6">
         <f t="shared" si="4"/>
-        <v>45624</v>
+        <v>45988</v>
       </c>
       <c r="I54" s="6">
         <f t="shared" si="4"/>
-        <v>45625</v>
+        <v>45989</v>
       </c>
       <c r="J54" s="18">
         <f t="shared" si="4"/>
-        <v>45626</v>
+        <v>45990</v>
       </c>
       <c r="K54" s="18">
         <f t="shared" si="4"/>
-        <v>45627</v>
+        <v>45991</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10953,38 +10959,38 @@
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="C55" s="7" t="str">
+      <c r="C55" s="7">
         <f t="array" ref="C55">IF(SUM(1*(DAY(E55:K55)=1))&gt;0,K55,"")</f>
-        <v/>
+        <v>45998</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="13">
         <f t="shared" si="1"/>
-        <v>45628</v>
+        <v>45992</v>
       </c>
       <c r="F55" s="6">
         <f t="shared" ref="F55:K59" si="5">E55+1</f>
-        <v>45629</v>
+        <v>45993</v>
       </c>
       <c r="G55" s="6">
         <f t="shared" si="5"/>
-        <v>45630</v>
+        <v>45994</v>
       </c>
       <c r="H55" s="6">
         <f t="shared" si="5"/>
-        <v>45631</v>
+        <v>45995</v>
       </c>
       <c r="I55" s="6">
         <f t="shared" si="5"/>
-        <v>45632</v>
+        <v>45996</v>
       </c>
       <c r="J55" s="18">
         <f t="shared" si="5"/>
-        <v>45633</v>
+        <v>45997</v>
       </c>
       <c r="K55" s="18">
         <f t="shared" si="5"/>
-        <v>45634</v>
+        <v>45998</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10999,31 +11005,31 @@
       <c r="D56" s="2"/>
       <c r="E56" s="13">
         <f t="shared" si="1"/>
-        <v>45635</v>
+        <v>45999</v>
       </c>
       <c r="F56" s="6">
         <f t="shared" si="5"/>
-        <v>45636</v>
+        <v>46000</v>
       </c>
       <c r="G56" s="6">
         <f t="shared" si="5"/>
-        <v>45637</v>
+        <v>46001</v>
       </c>
       <c r="H56" s="6">
         <f t="shared" si="5"/>
-        <v>45638</v>
+        <v>46002</v>
       </c>
       <c r="I56" s="6">
         <f t="shared" si="5"/>
-        <v>45639</v>
+        <v>46003</v>
       </c>
       <c r="J56" s="18">
         <f t="shared" si="5"/>
-        <v>45640</v>
+        <v>46004</v>
       </c>
       <c r="K56" s="18">
         <f t="shared" si="5"/>
-        <v>45641</v>
+        <v>46005</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11038,31 +11044,31 @@
       <c r="D57" s="2"/>
       <c r="E57" s="13">
         <f t="shared" si="1"/>
-        <v>45642</v>
+        <v>46006</v>
       </c>
       <c r="F57" s="6">
         <f t="shared" si="5"/>
-        <v>45643</v>
+        <v>46007</v>
       </c>
       <c r="G57" s="6">
         <f t="shared" si="5"/>
-        <v>45644</v>
+        <v>46008</v>
       </c>
       <c r="H57" s="6">
         <f t="shared" si="5"/>
-        <v>45645</v>
+        <v>46009</v>
       </c>
       <c r="I57" s="6">
         <f t="shared" si="5"/>
-        <v>45646</v>
+        <v>46010</v>
       </c>
       <c r="J57" s="18">
         <f t="shared" si="5"/>
-        <v>45647</v>
+        <v>46011</v>
       </c>
       <c r="K57" s="18">
         <f t="shared" si="5"/>
-        <v>45648</v>
+        <v>46012</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11077,31 +11083,31 @@
       <c r="D58" s="2"/>
       <c r="E58" s="13">
         <f t="shared" si="1"/>
-        <v>45649</v>
+        <v>46013</v>
       </c>
       <c r="F58" s="6">
         <f t="shared" si="5"/>
-        <v>45650</v>
+        <v>46014</v>
       </c>
       <c r="G58" s="6">
         <f t="shared" si="5"/>
-        <v>45651</v>
+        <v>46015</v>
       </c>
       <c r="H58" s="6">
         <f t="shared" si="5"/>
-        <v>45652</v>
+        <v>46016</v>
       </c>
       <c r="I58" s="6">
         <f t="shared" si="5"/>
-        <v>45653</v>
+        <v>46017</v>
       </c>
       <c r="J58" s="18">
         <f t="shared" si="5"/>
-        <v>45654</v>
+        <v>46018</v>
       </c>
       <c r="K58" s="18">
         <f t="shared" si="5"/>
-        <v>45655</v>
+        <v>46019</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11111,36 +11117,36 @@
       </c>
       <c r="C59" s="7">
         <f t="array" ref="C59">IF(SUM(1*(DAY(E59:K59)=1))&gt;0,K59,"")</f>
-        <v>45662</v>
+        <v>46026</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="13">
         <f t="shared" si="1"/>
-        <v>45656</v>
+        <v>46020</v>
       </c>
       <c r="F59" s="6">
         <f t="shared" si="5"/>
-        <v>45657</v>
+        <v>46021</v>
       </c>
       <c r="G59" s="6">
         <f>F59+1</f>
-        <v>45658</v>
+        <v>46022</v>
       </c>
       <c r="H59" s="6">
         <f>G59+1</f>
-        <v>45659</v>
+        <v>46023</v>
       </c>
       <c r="I59" s="6">
         <f>H59+1</f>
-        <v>45660</v>
+        <v>46024</v>
       </c>
       <c r="J59" s="18">
         <f>I59+1</f>
-        <v>45661</v>
+        <v>46025</v>
       </c>
       <c r="K59" s="18">
         <f>J59+1</f>
-        <v>45662</v>
+        <v>46026</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11192,9 +11198,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11294,11 +11298,11 @@
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="29">
         <f>DATE(YEAR('12-Month'!$E$1),1,1)</f>
-        <v>45292</v>
+        <v>45658</v>
       </c>
       <c r="B6" s="42">
         <f>A6</f>
-        <v>45292</v>
+        <v>45658</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>67</v>
@@ -11316,11 +11320,11 @@
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="29">
         <f>DATE(YEAR('12-Month'!$E$1),1,6)</f>
-        <v>45297</v>
+        <v>45663</v>
       </c>
       <c r="B7" s="42">
         <f>A7</f>
-        <v>45297</v>
+        <v>45663</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>69</v>
@@ -11338,11 +11342,11 @@
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="29">
         <f>FLOOR(DATE(YEAR('12-Month'!$E$1),5,DAY(MINUTE(YEAR('12-Month'!$E$1)/38)/2+56)),7)-34</f>
-        <v>45382</v>
+        <v>45767</v>
       </c>
       <c r="B8" s="42">
         <f t="shared" ref="B8" si="0">A8</f>
-        <v>45382</v>
+        <v>45767</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>71</v>
@@ -11360,11 +11364,11 @@
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="29">
         <f>FLOOR(DATE(YEAR('12-Month'!$E$1),5,DAY(MINUTE(YEAR('12-Month'!$E$1)/38)/2+56)),7)-34+1</f>
-        <v>45383</v>
+        <v>45768</v>
       </c>
       <c r="B9" s="42">
         <f t="shared" ref="B9" si="1">A9</f>
-        <v>45383</v>
+        <v>45768</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>73</v>
@@ -11382,11 +11386,11 @@
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="29">
         <f>DATE(YEAR('12-Month'!$E$1),4,25)</f>
-        <v>45407</v>
+        <v>45772</v>
       </c>
       <c r="B10" s="42">
         <f t="shared" ref="B10:B17" si="2">A10</f>
-        <v>45407</v>
+        <v>45772</v>
       </c>
       <c r="C10" s="35" t="s">
         <v>88</v>
@@ -11404,11 +11408,11 @@
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <f>DATE(YEAR('12-Month'!$E$1),5,1)</f>
-        <v>45413</v>
+        <v>45778</v>
       </c>
       <c r="B11" s="42">
         <f t="shared" si="2"/>
-        <v>45413</v>
+        <v>45778</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>78</v>
@@ -11426,11 +11430,11 @@
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="29">
         <f>DATE(YEAR('12-Month'!$E$1),6,2)</f>
-        <v>45445</v>
+        <v>45810</v>
       </c>
       <c r="B12" s="42">
         <f t="shared" si="2"/>
-        <v>45445</v>
+        <v>45810</v>
       </c>
       <c r="C12" s="35" t="s">
         <v>76</v>
@@ -11448,11 +11452,11 @@
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="29">
         <f>DATE(YEAR('12-Month'!$E$1),8,15)</f>
-        <v>45519</v>
+        <v>45884</v>
       </c>
       <c r="B13" s="42">
         <f t="shared" si="2"/>
-        <v>45519</v>
+        <v>45884</v>
       </c>
       <c r="C13" s="35" t="s">
         <v>89</v>
@@ -11470,11 +11474,11 @@
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="29">
         <f>DATE(YEAR('12-Month'!$E$1),11,1)</f>
-        <v>45597</v>
+        <v>45962</v>
       </c>
       <c r="B14" s="42">
         <f t="shared" si="2"/>
-        <v>45597</v>
+        <v>45962</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>81</v>
@@ -11492,11 +11496,11 @@
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="29">
         <f>DATE(YEAR('12-Month'!$E$1),12,8)</f>
-        <v>45634</v>
+        <v>45999</v>
       </c>
       <c r="B15" s="42">
         <f t="shared" si="2"/>
-        <v>45634</v>
+        <v>45999</v>
       </c>
       <c r="C15" s="35" t="s">
         <v>82</v>
@@ -11514,11 +11518,11 @@
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="29">
         <f>DATE(YEAR('12-Month'!$E$1),12,25)</f>
-        <v>45651</v>
+        <v>46016</v>
       </c>
       <c r="B16" s="42">
         <f t="shared" si="2"/>
-        <v>45651</v>
+        <v>46016</v>
       </c>
       <c r="C16" s="35" t="s">
         <v>90</v>
@@ -11536,11 +11540,11 @@
     <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="29">
         <f>DATE(YEAR('12-Month'!$E$1),12,26)</f>
-        <v>45652</v>
+        <v>46017</v>
       </c>
       <c r="B17" s="42">
         <f t="shared" si="2"/>
-        <v>45652</v>
+        <v>46017</v>
       </c>
       <c r="C17" s="35" t="s">
         <v>86</v>
@@ -11570,11 +11574,11 @@
     <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="29">
         <f>DATE(YEAR('12-Month'!$E$1)+1,1,1)</f>
-        <v>45658</v>
+        <v>46023</v>
       </c>
       <c r="B19" s="42">
         <f>A19</f>
-        <v>45658</v>
+        <v>46023</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>67</v>
@@ -11592,11 +11596,11 @@
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="29">
         <f>DATE(YEAR('12-Month'!$E$1)+1,1,6)</f>
-        <v>45663</v>
+        <v>46028</v>
       </c>
       <c r="B20" s="42">
         <f>A20</f>
-        <v>45663</v>
+        <v>46028</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>69</v>
@@ -11614,11 +11618,11 @@
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="29">
         <f>FLOOR(DATE(YEAR('12-Month'!$E$1)+1,5,DAY(MINUTE((YEAR('12-Month'!$E$1)+1)/38)/2+56)),7)-34</f>
-        <v>45767</v>
+        <v>46117</v>
       </c>
       <c r="B21" s="42">
         <f t="shared" ref="B21" si="3">A21</f>
-        <v>45767</v>
+        <v>46117</v>
       </c>
       <c r="C21" s="35" t="s">
         <v>71</v>
@@ -11636,11 +11640,11 @@
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="29">
         <f>FLOOR(DATE(YEAR('12-Month'!$E$1)+1,5,DAY(MINUTE((YEAR('12-Month'!$E$1)+1)/38)/2+56)),7)-34+1</f>
-        <v>45768</v>
+        <v>46118</v>
       </c>
       <c r="B22" s="42">
         <f t="shared" ref="B22" si="4">A22</f>
-        <v>45768</v>
+        <v>46118</v>
       </c>
       <c r="C22" s="35" t="s">
         <v>73</v>
@@ -11658,11 +11662,11 @@
     <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="29">
         <f>DATE(YEAR('12-Month'!$E$1)+1,4,25)</f>
-        <v>45772</v>
+        <v>46137</v>
       </c>
       <c r="B23" s="42">
         <f>A23</f>
-        <v>45772</v>
+        <v>46137</v>
       </c>
       <c r="C23" s="35" t="s">
         <v>88</v>
@@ -11680,11 +11684,11 @@
     <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="29">
         <f>DATE(YEAR('12-Month'!$E$1)+1,5,1)</f>
-        <v>45778</v>
+        <v>46143</v>
       </c>
       <c r="B24" s="42">
         <f t="shared" ref="B24:B28" si="5">A24</f>
-        <v>45778</v>
+        <v>46143</v>
       </c>
       <c r="C24" s="35" t="s">
         <v>78</v>
@@ -11702,11 +11706,11 @@
     <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="29">
         <f>DATE(YEAR('12-Month'!$E$1)+1,6,2)</f>
-        <v>45810</v>
+        <v>46175</v>
       </c>
       <c r="B25" s="42">
         <f t="shared" si="5"/>
-        <v>45810</v>
+        <v>46175</v>
       </c>
       <c r="C25" s="35" t="s">
         <v>76</v>
@@ -11724,11 +11728,11 @@
     <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="29">
         <f>DATE(YEAR('12-Month'!$E$1)+1,8,15)</f>
-        <v>45884</v>
+        <v>46249</v>
       </c>
       <c r="B26" s="42">
         <f t="shared" si="5"/>
-        <v>45884</v>
+        <v>46249</v>
       </c>
       <c r="C26" s="35" t="s">
         <v>89</v>
@@ -11746,11 +11750,11 @@
     <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="29">
         <f>DATE(YEAR('12-Month'!$E$1)+1,11,1)</f>
-        <v>45962</v>
+        <v>46327</v>
       </c>
       <c r="B27" s="42">
         <f t="shared" si="5"/>
-        <v>45962</v>
+        <v>46327</v>
       </c>
       <c r="C27" s="35" t="s">
         <v>81</v>
@@ -11768,11 +11772,11 @@
     <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="29">
         <f>DATE(YEAR('12-Month'!$E$1)+1,12,8)</f>
-        <v>45999</v>
+        <v>46364</v>
       </c>
       <c r="B28" s="42">
         <f t="shared" si="5"/>
-        <v>45999</v>
+        <v>46364</v>
       </c>
       <c r="C28" s="35" t="s">
         <v>82</v>
@@ -11790,11 +11794,11 @@
     <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="29">
         <f>DATE(YEAR('12-Month'!$E$1)+1,12,25)</f>
-        <v>46016</v>
+        <v>46381</v>
       </c>
       <c r="B29" s="42">
         <f t="shared" ref="B29" si="6">A29</f>
-        <v>46016</v>
+        <v>46381</v>
       </c>
       <c r="C29" s="35" t="s">
         <v>90</v>
@@ -11812,11 +11816,11 @@
     <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="29">
         <f>DATE(YEAR('12-Month'!$E$1)+1,12,26)</f>
-        <v>46017</v>
+        <v>46382</v>
       </c>
       <c r="B30" s="42">
         <f t="shared" ref="B30" si="7">A30</f>
-        <v>46017</v>
+        <v>46382</v>
       </c>
       <c r="C30" s="35" t="s">
         <v>86</v>
@@ -12087,4 +12091,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{ca4d6ee7-f5b3-49d0-ab0e-5114de730973}" enabled="1" method="Privileged" siteId="{028226e0-99ea-4fab-9d1b-daa440c9e286}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>